--- a/data/relief_data/2023.xlsx
+++ b/data/relief_data/2023.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>date</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bukauskas_j</t>
+          <t>bukauskas_j. b.</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>chargois_j</t>
+          <t>chargois_j. t.</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>4.862903225806452</v>
+        <v>4.935483870967742</v>
       </c>
       <c r="D164" t="n">
         <v>1.564516129032258</v>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>france_j</t>
+          <t>france_j. p.</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -9745,31 +9745,31 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>3.466666666666667</v>
+        <v>3.613636363636364</v>
       </c>
       <c r="D252" t="n">
-        <v>6.666666666666667</v>
+        <v>1.409090909090909</v>
       </c>
       <c r="E252" t="n">
-        <v>4.111111111111111</v>
+        <v>1.015151515151515</v>
       </c>
       <c r="F252" t="n">
-        <v>2.555555555555555</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G252" t="n">
-        <v>1.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
-        <v>0.1639760060136035</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="I252" t="n">
-        <v>17.66666666666667</v>
+        <v>4.303030303030303</v>
       </c>
       <c r="J252" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2878787878787879</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1111111111111111</v>
+        <v>-0.1060606060606061</v>
       </c>
     </row>
     <row r="253">
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>4.663043478260869</v>
+        <v>4.565217391304348</v>
       </c>
       <c r="D337" t="n">
         <v>2.673913043478261</v>
@@ -12911,7 +12911,7 @@
         <v>6.695652173913044</v>
       </c>
       <c r="J337" t="n">
-        <v>-0.06521739130434782</v>
+        <v>-0.04347826086956522</v>
       </c>
       <c r="K337" t="n">
         <v>-0.7608695652173914</v>
@@ -13667,7 +13667,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2.732142857142857</v>
+        <v>2.892857142857143</v>
       </c>
       <c r="D358" t="n">
         <v>1.339285714285714</v>
@@ -13688,7 +13688,7 @@
         <v>4.321428571428571</v>
       </c>
       <c r="J358" t="n">
-        <v>1.107142857142857</v>
+        <v>1.160714285714286</v>
       </c>
       <c r="K358" t="n">
         <v>0.8214285714285714</v>
@@ -18508,7 +18508,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>mcfarland_t</t>
+          <t>mcfarland_t. j.</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -19026,7 +19026,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>mejía_j</t>
+          <t>mejía_j. c.</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>minter_a</t>
+          <t>minter_a. j.</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -19606,7 +19606,7 @@
         <v>4.662337662337662</v>
       </c>
       <c r="J518" t="n">
-        <v>1.597402597402597</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="K518" t="n">
         <v>1.298701298701299</v>
@@ -21077,7 +21077,7 @@
         <v>3.65625</v>
       </c>
       <c r="G558" t="n">
-        <v>1.09375</v>
+        <v>1.0625</v>
       </c>
       <c r="H558" t="n">
         <v>0.2205761016699623</v>
@@ -21324,31 +21324,31 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>4.728571428571429</v>
+        <v>2.41304347826087</v>
       </c>
       <c r="D565" t="n">
-        <v>7.952380952380953</v>
+        <v>2.173913043478261</v>
       </c>
       <c r="E565" t="n">
-        <v>3.047619047619047</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="F565" t="n">
-        <v>2.523809523809524</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="G565" t="n">
-        <v>2.571428571428572</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="H565" t="n">
-        <v>0.2097064751826656</v>
+        <v>0.09597998619737749</v>
       </c>
       <c r="I565" t="n">
-        <v>18.71428571428572</v>
+        <v>5.521739130434782</v>
       </c>
       <c r="J565" t="n">
-        <v>-0.04761904761904762</v>
+        <v>1.173913043478261</v>
       </c>
       <c r="K565" t="n">
-        <v>-0.8095238095238095</v>
+        <v>1.173913043478261</v>
       </c>
     </row>
     <row r="566">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>puk_a</t>
+          <t>puk_a. j.</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -23172,7 +23172,7 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>2.779411764705882</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="D615" t="n">
         <v>1.058823529411765</v>
@@ -23193,7 +23193,7 @@
         <v>4.558823529411764</v>
       </c>
       <c r="J615" t="n">
-        <v>1.191176470588235</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="K615" t="n">
         <v>0.9264705882352942</v>
@@ -25688,7 +25688,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3.166666666666667</v>
+        <v>3.252380952380952</v>
       </c>
       <c r="D683" t="n">
         <v>1.488888888888889</v>
@@ -25709,7 +25709,7 @@
         <v>4.8</v>
       </c>
       <c r="J683" t="n">
-        <v>-1.222222222222222</v>
+        <v>-1.133333333333333</v>
       </c>
       <c r="K683" t="n">
         <v>-1.4</v>
@@ -25762,7 +25762,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>0.2727272727272727</v>
+        <v>2.318181818181818</v>
       </c>
       <c r="D685" t="n">
         <v>1.727272727272727</v>
@@ -30239,7 +30239,7 @@
         </is>
       </c>
       <c r="C806" t="n">
-        <v>3.241071428571428</v>
+        <v>3.348214285714286</v>
       </c>
       <c r="D806" t="n">
         <v>1.75</v>

--- a/data/relief_data/2023.xlsx
+++ b/data/relief_data/2023.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J850"/>
+  <dimension ref="A1:K850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -477,6 +477,11 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>d2S/G</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>GP</t>
         </is>
       </c>
     </row>
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>0.4545454545454546</v>
       </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>-0.8799999999999999</v>
       </c>
+      <c r="K4" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>-0.5471698113207546</v>
       </c>
+      <c r="K5" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>-0.2441860465116279</v>
       </c>
+      <c r="K6" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>-1</v>
       </c>
+      <c r="K7" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>-0.3859649122807018</v>
       </c>
+      <c r="K9" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K10" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>-1.285714285714286</v>
       </c>
+      <c r="K12" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K13" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>-2</v>
       </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>-0.2631578947368421</v>
       </c>
+      <c r="K15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -989,6 +1036,9 @@
       <c r="J16" t="n">
         <v>-0.03125</v>
       </c>
+      <c r="K16" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1023,6 +1073,9 @@
       <c r="J17" t="n">
         <v>-0.2580645161290323</v>
       </c>
+      <c r="K17" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1057,6 +1110,9 @@
       <c r="J18" t="n">
         <v>-0.0625</v>
       </c>
+      <c r="K18" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1091,6 +1147,9 @@
       <c r="J19" t="n">
         <v>0.1666666666666666</v>
       </c>
+      <c r="K19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1125,6 +1184,9 @@
       <c r="J20" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K20" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1159,6 +1221,9 @@
       <c r="J21" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K21" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1193,6 +1258,9 @@
       <c r="J22" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K22" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,6 +1295,9 @@
       <c r="J23" t="n">
         <v>-0.07575757575757575</v>
       </c>
+      <c r="K23" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1261,6 +1332,9 @@
       <c r="J24" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1295,6 +1369,9 @@
       <c r="J25" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K25" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1329,6 +1406,9 @@
       <c r="J26" t="n">
         <v>-0.3181818181818183</v>
       </c>
+      <c r="K26" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1363,6 +1443,9 @@
       <c r="J27" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="K27" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1397,6 +1480,9 @@
       <c r="J28" t="n">
         <v>-0.875</v>
       </c>
+      <c r="K28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1431,6 +1517,9 @@
       <c r="J29" t="n">
         <v>0.2</v>
       </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1465,6 +1554,9 @@
       <c r="J30" t="n">
         <v>-0.225</v>
       </c>
+      <c r="K30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1499,6 +1591,9 @@
       <c r="J31" t="n">
         <v>0.2903225806451613</v>
       </c>
+      <c r="K31" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1533,6 +1628,9 @@
       <c r="J32" t="n">
         <v>0.3714285714285713</v>
       </c>
+      <c r="K32" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1567,6 +1665,9 @@
       <c r="J33" t="n">
         <v>-0.05882352941176466</v>
       </c>
+      <c r="K33" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1601,6 +1702,9 @@
       <c r="J34" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K34" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1739,9 @@
       <c r="J35" t="n">
         <v>-0.4464285714285715</v>
       </c>
+      <c r="K35" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1669,6 +1776,9 @@
       <c r="J36" t="n">
         <v>-0.7222222222222222</v>
       </c>
+      <c r="K36" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1813,9 @@
       <c r="J37" t="n">
         <v>-0.45</v>
       </c>
+      <c r="K37" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1737,6 +1850,9 @@
       <c r="J38" t="n">
         <v>-0.6944444444444442</v>
       </c>
+      <c r="K38" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1771,6 +1887,9 @@
       <c r="J39" t="n">
         <v>-0.4821428571428571</v>
       </c>
+      <c r="K39" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1805,6 +1924,9 @@
       <c r="J40" t="n">
         <v>-0.2857142857142857</v>
       </c>
+      <c r="K40" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1839,6 +1961,9 @@
       <c r="J41" t="n">
         <v>-0.4027777777777778</v>
       </c>
+      <c r="K41" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1873,6 +1998,9 @@
       <c r="J42" t="n">
         <v>-0.4761904761904763</v>
       </c>
+      <c r="K42" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1907,6 +2035,9 @@
       <c r="J43" t="n">
         <v>-0.4838709677419356</v>
       </c>
+      <c r="K43" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1941,6 +2072,9 @@
       <c r="J44" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1975,6 +2109,9 @@
       <c r="J45" t="n">
         <v>-3</v>
       </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2009,6 +2146,9 @@
       <c r="J46" t="n">
         <v>-1.216216216216216</v>
       </c>
+      <c r="K46" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,6 +2183,9 @@
       <c r="J47" t="n">
         <v>-0.4666666666666666</v>
       </c>
+      <c r="K47" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2077,6 +2220,9 @@
       <c r="J48" t="n">
         <v>0.2368421052631579</v>
       </c>
+      <c r="K48" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,6 +2257,9 @@
       <c r="J49" t="n">
         <v>-2</v>
       </c>
+      <c r="K49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2145,6 +2294,9 @@
       <c r="J50" t="n">
         <v>-0.3088235294117647</v>
       </c>
+      <c r="K50" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2179,6 +2331,9 @@
       <c r="J51" t="n">
         <v>-0.06557377049180335</v>
       </c>
+      <c r="K51" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2213,6 +2368,9 @@
       <c r="J52" t="n">
         <v>-0.2857142857142856</v>
       </c>
+      <c r="K52" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2405,9 @@
       <c r="J53" t="n">
         <v>-3</v>
       </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2281,6 +2442,9 @@
       <c r="J54" t="n">
         <v>-0.4473684210526316</v>
       </c>
+      <c r="K54" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2315,6 +2479,9 @@
       <c r="J55" t="n">
         <v>-0.295774647887324</v>
       </c>
+      <c r="K55" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2349,6 +2516,9 @@
       <c r="J56" t="n">
         <v>-0.3055555555555555</v>
       </c>
+      <c r="K56" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2383,6 +2553,9 @@
       <c r="J57" t="n">
         <v>-0.5833333333333333</v>
       </c>
+      <c r="K57" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2417,6 +2590,9 @@
       <c r="J58" t="n">
         <v>0.1724137931034482</v>
       </c>
+      <c r="K58" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2451,6 +2627,9 @@
       <c r="J59" t="n">
         <v>-0.1206896551724138</v>
       </c>
+      <c r="K59" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2485,6 +2664,9 @@
       <c r="J60" t="n">
         <v>0.75</v>
       </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2519,6 +2701,9 @@
       <c r="J61" t="n">
         <v>-0.1081081081081081</v>
       </c>
+      <c r="K61" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2553,6 +2738,9 @@
       <c r="J62" t="n">
         <v>0.52</v>
       </c>
+      <c r="K62" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2587,6 +2775,9 @@
       <c r="J63" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K63" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2621,6 +2812,9 @@
       <c r="J64" t="n">
         <v>-0.5263157894736843</v>
       </c>
+      <c r="K64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2655,6 +2849,9 @@
       <c r="J65" t="n">
         <v>-0.07692307692307693</v>
       </c>
+      <c r="K65" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2689,6 +2886,9 @@
       <c r="J66" t="n">
         <v>-0.7999999999999999</v>
       </c>
+      <c r="K66" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,6 +2923,9 @@
       <c r="J67" t="n">
         <v>-0.5945945945945945</v>
       </c>
+      <c r="K67" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2757,6 +2960,9 @@
       <c r="J68" t="n">
         <v>-0.2142857142857144</v>
       </c>
+      <c r="K68" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2791,6 +2997,9 @@
       <c r="J69" t="n">
         <v>-0.9130434782608696</v>
       </c>
+      <c r="K69" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2825,6 +3034,9 @@
       <c r="J70" t="n">
         <v>-0.2608695652173914</v>
       </c>
+      <c r="K70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2859,6 +3071,9 @@
       <c r="J71" t="n">
         <v>-0.7941176470588236</v>
       </c>
+      <c r="K71" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2893,6 +3108,9 @@
       <c r="J72" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K72" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2927,6 +3145,9 @@
       <c r="J73" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K73" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2961,6 +3182,9 @@
       <c r="J74" t="n">
         <v>-1</v>
       </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2995,6 +3219,9 @@
       <c r="J75" t="n">
         <v>0</v>
       </c>
+      <c r="K75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3029,6 +3256,9 @@
       <c r="J76" t="n">
         <v>-1.666666666666667</v>
       </c>
+      <c r="K76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3063,6 +3293,9 @@
       <c r="J77" t="n">
         <v>-0.1724137931034483</v>
       </c>
+      <c r="K77" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3097,6 +3330,9 @@
       <c r="J78" t="n">
         <v>-0.1052631578947368</v>
       </c>
+      <c r="K78" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3131,6 +3367,9 @@
       <c r="J79" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3165,6 +3404,9 @@
       <c r="J80" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K80" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3199,6 +3441,9 @@
       <c r="J81" t="n">
         <v>-0.6296296296296295</v>
       </c>
+      <c r="K81" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3233,6 +3478,9 @@
       <c r="J82" t="n">
         <v>0.3055555555555555</v>
       </c>
+      <c r="K82" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3267,6 +3515,9 @@
       <c r="J83" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3301,6 +3552,9 @@
       <c r="J84" t="n">
         <v>-0.07692307692307693</v>
       </c>
+      <c r="K84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3335,6 +3589,9 @@
       <c r="J85" t="n">
         <v>-0.3214285714285714</v>
       </c>
+      <c r="K85" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3369,6 +3626,9 @@
       <c r="J86" t="n">
         <v>-0.3582089552238806</v>
       </c>
+      <c r="K86" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3403,6 +3663,9 @@
       <c r="J87" t="n">
         <v>-0.509090909090909</v>
       </c>
+      <c r="K87" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3437,6 +3700,9 @@
       <c r="J88" t="n">
         <v>-0.5106382978723405</v>
       </c>
+      <c r="K88" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3471,6 +3737,9 @@
       <c r="J89" t="n">
         <v>-0.6363636363636364</v>
       </c>
+      <c r="K89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3505,6 +3774,9 @@
       <c r="J90" t="n">
         <v>-0.4838709677419355</v>
       </c>
+      <c r="K90" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3539,6 +3811,9 @@
       <c r="J91" t="n">
         <v>-0.3555555555555555</v>
       </c>
+      <c r="K91" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3573,6 +3848,9 @@
       <c r="J92" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K92" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3607,6 +3885,9 @@
       <c r="J93" t="n">
         <v>-0.103448275862069</v>
       </c>
+      <c r="K93" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3641,6 +3922,9 @@
       <c r="J94" t="n">
         <v>-0.6285714285714286</v>
       </c>
+      <c r="K94" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3675,6 +3959,9 @@
       <c r="J95" t="n">
         <v>-1.333333333333332</v>
       </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3709,6 +3996,9 @@
       <c r="J96" t="n">
         <v>-0.358974358974359</v>
       </c>
+      <c r="K96" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3743,6 +4033,9 @@
       <c r="J97" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K97" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3777,6 +4070,9 @@
       <c r="J98" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3811,6 +4107,9 @@
       <c r="J99" t="n">
         <v>-0.8181818181818181</v>
       </c>
+      <c r="K99" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3845,6 +4144,9 @@
       <c r="J100" t="n">
         <v>-2.142857142857143</v>
       </c>
+      <c r="K100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3879,6 +4181,9 @@
       <c r="J101" t="n">
         <v>-0.3650793650793651</v>
       </c>
+      <c r="K101" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3913,6 +4218,9 @@
       <c r="J102" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3947,6 +4255,9 @@
       <c r="J103" t="n">
         <v>-0.8888888888888888</v>
       </c>
+      <c r="K103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3981,6 +4292,9 @@
       <c r="J104" t="n">
         <v>-0.03174603174603163</v>
       </c>
+      <c r="K104" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4015,6 +4329,9 @@
       <c r="J105" t="n">
         <v>-2.5</v>
       </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4049,6 +4366,9 @@
       <c r="J106" t="n">
         <v>0.6842105263157894</v>
       </c>
+      <c r="K106" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4083,6 +4403,9 @@
       <c r="J107" t="n">
         <v>-1.111111111111111</v>
       </c>
+      <c r="K107" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4117,6 +4440,9 @@
       <c r="J108" t="n">
         <v>-0.7058823529411765</v>
       </c>
+      <c r="K108" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4151,6 +4477,9 @@
       <c r="J109" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K109" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4185,6 +4514,9 @@
       <c r="J110" t="n">
         <v>0.7307692307692308</v>
       </c>
+      <c r="K110" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4219,6 +4551,9 @@
       <c r="J111" t="n">
         <v>-0.2753623188405798</v>
       </c>
+      <c r="K111" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4253,6 +4588,9 @@
       <c r="J112" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K112" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4287,6 +4625,9 @@
       <c r="J113" t="n">
         <v>-0.5357142857142857</v>
       </c>
+      <c r="K113" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4321,6 +4662,9 @@
       <c r="J114" t="n">
         <v>0.5</v>
       </c>
+      <c r="K114" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4355,6 +4699,9 @@
       <c r="J115" t="n">
         <v>-0.2098765432098764</v>
       </c>
+      <c r="K115" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4389,6 +4736,9 @@
       <c r="J116" t="n">
         <v>-1.75</v>
       </c>
+      <c r="K116" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4423,6 +4773,9 @@
       <c r="J117" t="n">
         <v>-0.4736842105263158</v>
       </c>
+      <c r="K117" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4457,6 +4810,9 @@
       <c r="J118" t="n">
         <v>-0.4583333333333333</v>
       </c>
+      <c r="K118" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4491,6 +4847,9 @@
       <c r="J119" t="n">
         <v>-1.571428571428572</v>
       </c>
+      <c r="K119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4525,6 +4884,9 @@
       <c r="J120" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K120" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4559,6 +4921,9 @@
       <c r="J121" t="n">
         <v>0.3157894736842105</v>
       </c>
+      <c r="K121" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4593,6 +4958,9 @@
       <c r="J122" t="n">
         <v>-0.9090909090909091</v>
       </c>
+      <c r="K122" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4627,6 +4995,9 @@
       <c r="J123" t="n">
         <v>-1</v>
       </c>
+      <c r="K123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4661,6 +5032,9 @@
       <c r="J124" t="n">
         <v>-0.2967032967032967</v>
       </c>
+      <c r="K124" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4695,6 +5069,9 @@
       <c r="J125" t="n">
         <v>-1</v>
       </c>
+      <c r="K125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4729,6 +5106,9 @@
       <c r="J126" t="n">
         <v>-0.1578947368421053</v>
       </c>
+      <c r="K126" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4763,6 +5143,9 @@
       <c r="J127" t="n">
         <v>-1.090909090909091</v>
       </c>
+      <c r="K127" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4797,6 +5180,9 @@
       <c r="J128" t="n">
         <v>-1.1</v>
       </c>
+      <c r="K128" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4831,6 +5217,9 @@
       <c r="J129" t="n">
         <v>-0.2777777777777779</v>
       </c>
+      <c r="K129" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4865,6 +5254,9 @@
       <c r="J130" t="n">
         <v>-0.2499999999999999</v>
       </c>
+      <c r="K130" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4899,6 +5291,9 @@
       <c r="J131" t="n">
         <v>-0.4181818181818182</v>
       </c>
+      <c r="K131" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4933,6 +5328,9 @@
       <c r="J132" t="n">
         <v>-0.2954545454545454</v>
       </c>
+      <c r="K132" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4967,6 +5365,9 @@
       <c r="J133" t="n">
         <v>-0.16</v>
       </c>
+      <c r="K133" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5001,6 +5402,9 @@
       <c r="J134" t="n">
         <v>-0.6428571428571428</v>
       </c>
+      <c r="K134" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5035,6 +5439,9 @@
       <c r="J135" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K135" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5069,6 +5476,9 @@
       <c r="J136" t="n">
         <v>0.5357142857142858</v>
       </c>
+      <c r="K136" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5103,6 +5513,9 @@
       <c r="J137" t="n">
         <v>-0.6774193548387096</v>
       </c>
+      <c r="K137" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5137,6 +5550,9 @@
       <c r="J138" t="n">
         <v>-0.392857142857143</v>
       </c>
+      <c r="K138" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5171,6 +5587,9 @@
       <c r="J139" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K139" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5205,6 +5624,9 @@
       <c r="J140" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5239,6 +5661,9 @@
       <c r="J141" t="n">
         <v>-1</v>
       </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5273,6 +5698,9 @@
       <c r="J142" t="n">
         <v>-0.4642857142857143</v>
       </c>
+      <c r="K142" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5307,6 +5735,9 @@
       <c r="J143" t="n">
         <v>-0.3125</v>
       </c>
+      <c r="K143" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5341,6 +5772,9 @@
       <c r="J144" t="n">
         <v>1.315789473684211</v>
       </c>
+      <c r="K144" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5375,6 +5809,9 @@
       <c r="J145" t="n">
         <v>-0.6129032258064516</v>
       </c>
+      <c r="K145" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5409,6 +5846,9 @@
       <c r="J146" t="n">
         <v>-0.6428571428571429</v>
       </c>
+      <c r="K146" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5443,6 +5883,9 @@
       <c r="J147" t="n">
         <v>-1.260869565217391</v>
       </c>
+      <c r="K147" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5477,6 +5920,9 @@
       <c r="J148" t="n">
         <v>-0.2000000000000002</v>
       </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5511,6 +5957,9 @@
       <c r="J149" t="n">
         <v>-0.6486486486486487</v>
       </c>
+      <c r="K149" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5545,6 +5994,9 @@
       <c r="J150" t="n">
         <v>-0.15</v>
       </c>
+      <c r="K150" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5579,6 +6031,9 @@
       <c r="J151" t="n">
         <v>0.1333333333333333</v>
       </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5613,6 +6068,9 @@
       <c r="J152" t="n">
         <v>-0.2678571428571429</v>
       </c>
+      <c r="K152" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5647,6 +6105,9 @@
       <c r="J153" t="n">
         <v>-0.1142857142857143</v>
       </c>
+      <c r="K153" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5681,6 +6142,9 @@
       <c r="J154" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K154" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5715,6 +6179,9 @@
       <c r="J155" t="n">
         <v>-0.4375</v>
       </c>
+      <c r="K155" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5749,6 +6216,9 @@
       <c r="J156" t="n">
         <v>-0.2142857142857143</v>
       </c>
+      <c r="K156" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5783,6 +6253,9 @@
       <c r="J157" t="n">
         <v>0</v>
       </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5817,6 +6290,9 @@
       <c r="J158" t="n">
         <v>0.4444444444444444</v>
       </c>
+      <c r="K158" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5851,6 +6327,9 @@
       <c r="J159" t="n">
         <v>-1.272727272727273</v>
       </c>
+      <c r="K159" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5885,6 +6364,9 @@
       <c r="J160" t="n">
         <v>-0.8125</v>
       </c>
+      <c r="K160" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5919,6 +6401,9 @@
       <c r="J161" t="n">
         <v>-0.5384615384615383</v>
       </c>
+      <c r="K161" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5953,6 +6438,9 @@
       <c r="J162" t="n">
         <v>-0.8666666666666667</v>
       </c>
+      <c r="K162" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5987,6 +6475,9 @@
       <c r="J163" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K163" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6021,6 +6512,9 @@
       <c r="J164" t="n">
         <v>-0.6451612903225806</v>
       </c>
+      <c r="K164" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6055,6 +6549,9 @@
       <c r="J165" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K165" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6089,6 +6586,9 @@
       <c r="J166" t="n">
         <v>-0.5949367088607596</v>
       </c>
+      <c r="K166" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6123,6 +6623,9 @@
       <c r="J167" t="n">
         <v>-1.133333333333333</v>
       </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6157,6 +6660,9 @@
       <c r="J168" t="n">
         <v>-0.6041666666666667</v>
       </c>
+      <c r="K168" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6191,6 +6697,9 @@
       <c r="J169" t="n">
         <v>-0.4090909090909091</v>
       </c>
+      <c r="K169" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6225,6 +6734,9 @@
       <c r="J170" t="n">
         <v>-0.5555555555555556</v>
       </c>
+      <c r="K170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6259,6 +6771,9 @@
       <c r="J171" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6293,6 +6808,9 @@
       <c r="J172" t="n">
         <v>0.6666666666666667</v>
       </c>
+      <c r="K172" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6327,6 +6845,9 @@
       <c r="J173" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K173" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6361,6 +6882,9 @@
       <c r="J174" t="n">
         <v>-0.4772727272727273</v>
       </c>
+      <c r="K174" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6395,6 +6919,9 @@
       <c r="J175" t="n">
         <v>-0.8095238095238095</v>
       </c>
+      <c r="K175" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6429,6 +6956,9 @@
       <c r="J176" t="n">
         <v>-2.615384615384616</v>
       </c>
+      <c r="K176" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6463,6 +6993,9 @@
       <c r="J177" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6497,6 +7030,9 @@
       <c r="J178" t="n">
         <v>-1.1875</v>
       </c>
+      <c r="K178" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6531,6 +7067,9 @@
       <c r="J179" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K179" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6565,6 +7104,9 @@
       <c r="J180" t="n">
         <v>-0.3157894736842105</v>
       </c>
+      <c r="K180" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6599,6 +7141,9 @@
       <c r="J181" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K181" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6633,6 +7178,9 @@
       <c r="J182" t="n">
         <v>1</v>
       </c>
+      <c r="K182" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6667,6 +7215,9 @@
       <c r="J183" t="n">
         <v>1</v>
       </c>
+      <c r="K183" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6701,6 +7252,9 @@
       <c r="J184" t="n">
         <v>-1.409090909090909</v>
       </c>
+      <c r="K184" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6735,6 +7289,9 @@
       <c r="J185" t="n">
         <v>-0.1176470588235294</v>
       </c>
+      <c r="K185" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6769,6 +7326,9 @@
       <c r="J186" t="n">
         <v>-0.6511627906976744</v>
       </c>
+      <c r="K186" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6803,6 +7363,9 @@
       <c r="J187" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K187" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6837,6 +7400,9 @@
       <c r="J188" t="n">
         <v>0</v>
       </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6871,6 +7437,9 @@
       <c r="J189" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K189" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6905,6 +7474,9 @@
       <c r="J190" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K190" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6939,6 +7511,9 @@
       <c r="J191" t="n">
         <v>0</v>
       </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6973,6 +7548,9 @@
       <c r="J192" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K192" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7007,6 +7585,9 @@
       <c r="J193" t="n">
         <v>-1.533333333333333</v>
       </c>
+      <c r="K193" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7041,6 +7622,9 @@
       <c r="J194" t="n">
         <v>-0.05405405405405406</v>
       </c>
+      <c r="K194" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7075,6 +7659,9 @@
       <c r="J195" t="n">
         <v>-1.833333333333333</v>
       </c>
+      <c r="K195" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7109,6 +7696,9 @@
       <c r="J196" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7143,6 +7733,9 @@
       <c r="J197" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7177,6 +7770,9 @@
       <c r="J198" t="n">
         <v>0.673913043478261</v>
       </c>
+      <c r="K198" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7211,6 +7807,9 @@
       <c r="J199" t="n">
         <v>-0.1714285714285715</v>
       </c>
+      <c r="K199" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7245,6 +7844,9 @@
       <c r="J200" t="n">
         <v>-0.3421052631578947</v>
       </c>
+      <c r="K200" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7279,6 +7881,9 @@
       <c r="J201" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K201" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7313,6 +7918,9 @@
       <c r="J202" t="n">
         <v>0.5999999999999999</v>
       </c>
+      <c r="K202" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7347,6 +7955,9 @@
       <c r="J203" t="n">
         <v>0</v>
       </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7381,6 +7992,9 @@
       <c r="J204" t="n">
         <v>-0.3414634146341462</v>
       </c>
+      <c r="K204" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7415,6 +8029,9 @@
       <c r="J205" t="n">
         <v>1.114285714285714</v>
       </c>
+      <c r="K205" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7449,6 +8066,9 @@
       <c r="J206" t="n">
         <v>0.6388888888888888</v>
       </c>
+      <c r="K206" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7483,6 +8103,9 @@
       <c r="J207" t="n">
         <v>-0.4864864864864865</v>
       </c>
+      <c r="K207" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7517,6 +8140,9 @@
       <c r="J208" t="n">
         <v>1.114285714285714</v>
       </c>
+      <c r="K208" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7551,6 +8177,9 @@
       <c r="J209" t="n">
         <v>-0.2142857142857143</v>
       </c>
+      <c r="K209" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7585,6 +8214,9 @@
       <c r="J210" t="n">
         <v>-0.6666666666666661</v>
       </c>
+      <c r="K210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7619,6 +8251,9 @@
       <c r="J211" t="n">
         <v>0</v>
       </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7653,6 +8288,9 @@
       <c r="J212" t="n">
         <v>-1</v>
       </c>
+      <c r="K212" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7687,6 +8325,9 @@
       <c r="J213" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7721,6 +8362,9 @@
       <c r="J214" t="n">
         <v>-0.5625</v>
       </c>
+      <c r="K214" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7755,6 +8399,9 @@
       <c r="J215" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K215" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7789,6 +8436,9 @@
       <c r="J216" t="n">
         <v>-0.7368421052631579</v>
       </c>
+      <c r="K216" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7823,6 +8473,9 @@
       <c r="J217" t="n">
         <v>-0.1851851851851853</v>
       </c>
+      <c r="K217" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7857,6 +8510,9 @@
       <c r="J218" t="n">
         <v>-1</v>
       </c>
+      <c r="K218" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7891,6 +8547,9 @@
       <c r="J219" t="n">
         <v>-0.5217391304347827</v>
       </c>
+      <c r="K219" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7925,6 +8584,9 @@
       <c r="J220" t="n">
         <v>-0.9999999999999998</v>
       </c>
+      <c r="K220" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7959,6 +8621,9 @@
       <c r="J221" t="n">
         <v>-0.382716049382716</v>
       </c>
+      <c r="K221" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7993,6 +8658,9 @@
       <c r="J222" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K222" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8027,6 +8695,9 @@
       <c r="J223" t="n">
         <v>-0.1333333333333333</v>
       </c>
+      <c r="K223" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8061,6 +8732,9 @@
       <c r="J224" t="n">
         <v>-1.066666666666667</v>
       </c>
+      <c r="K224" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8095,6 +8769,9 @@
       <c r="J225" t="n">
         <v>-0.3846153846153846</v>
       </c>
+      <c r="K225" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8129,6 +8806,9 @@
       <c r="J226" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K226" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8163,6 +8843,9 @@
       <c r="J227" t="n">
         <v>-0.3846153846153846</v>
       </c>
+      <c r="K227" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8197,6 +8880,9 @@
       <c r="J228" t="n">
         <v>-0.3866666666666667</v>
       </c>
+      <c r="K228" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8231,6 +8917,9 @@
       <c r="J229" t="n">
         <v>0.1428571428571429</v>
       </c>
+      <c r="K229" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8265,6 +8954,9 @@
       <c r="J230" t="n">
         <v>-0.2777777777777777</v>
       </c>
+      <c r="K230" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8299,6 +8991,9 @@
       <c r="J231" t="n">
         <v>0.05882352941176469</v>
       </c>
+      <c r="K231" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8333,6 +9028,9 @@
       <c r="J232" t="n">
         <v>-0.5070422535211268</v>
       </c>
+      <c r="K232" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8367,6 +9065,9 @@
       <c r="J233" t="n">
         <v>-0.3506493506493507</v>
       </c>
+      <c r="K233" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8401,6 +9102,9 @@
       <c r="J234" t="n">
         <v>-2</v>
       </c>
+      <c r="K234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8435,6 +9139,9 @@
       <c r="J235" t="n">
         <v>0.3461538461538461</v>
       </c>
+      <c r="K235" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8469,6 +9176,9 @@
       <c r="J236" t="n">
         <v>0.1538461538461538</v>
       </c>
+      <c r="K236" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8503,6 +9213,9 @@
       <c r="J237" t="n">
         <v>-1</v>
       </c>
+      <c r="K237" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8537,6 +9250,9 @@
       <c r="J238" t="n">
         <v>2.157894736842105</v>
       </c>
+      <c r="K238" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8571,6 +9287,9 @@
       <c r="J239" t="n">
         <v>-3.5</v>
       </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8605,6 +9324,9 @@
       <c r="J240" t="n">
         <v>-0.1739130434782609</v>
       </c>
+      <c r="K240" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8639,6 +9361,9 @@
       <c r="J241" t="n">
         <v>-0.3478260869565217</v>
       </c>
+      <c r="K241" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8673,6 +9398,9 @@
       <c r="J242" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="K242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8707,6 +9435,9 @@
       <c r="J243" t="n">
         <v>-0.1940298507462687</v>
       </c>
+      <c r="K243" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8741,6 +9472,9 @@
       <c r="J244" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K244" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8775,6 +9509,9 @@
       <c r="J245" t="n">
         <v>0.125</v>
       </c>
+      <c r="K245" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8809,6 +9546,9 @@
       <c r="J246" t="n">
         <v>-0.3999999999999999</v>
       </c>
+      <c r="K246" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8843,6 +9583,9 @@
       <c r="J247" t="n">
         <v>-0.5245901639344261</v>
       </c>
+      <c r="K247" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8877,6 +9620,9 @@
       <c r="J248" t="n">
         <v>0.3409090909090909</v>
       </c>
+      <c r="K248" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8911,6 +9657,9 @@
       <c r="J249" t="n">
         <v>-0.9473684210526316</v>
       </c>
+      <c r="K249" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8945,6 +9694,9 @@
       <c r="J250" t="n">
         <v>-0.06451612903225801</v>
       </c>
+      <c r="K250" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8979,6 +9731,9 @@
       <c r="J251" t="n">
         <v>-0.5384615384615383</v>
       </c>
+      <c r="K251" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9013,6 +9768,9 @@
       <c r="J252" t="n">
         <v>-0.393939393939394</v>
       </c>
+      <c r="K252" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9047,6 +9805,9 @@
       <c r="J253" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K253" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9081,6 +9842,9 @@
       <c r="J254" t="n">
         <v>-0.2058823529411764</v>
       </c>
+      <c r="K254" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9115,6 +9879,9 @@
       <c r="J255" t="n">
         <v>-0.5945945945945946</v>
       </c>
+      <c r="K255" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9149,6 +9916,9 @@
       <c r="J256" t="n">
         <v>-1.05</v>
       </c>
+      <c r="K256" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9183,6 +9953,9 @@
       <c r="J257" t="n">
         <v>-0.761904761904762</v>
       </c>
+      <c r="K257" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9217,6 +9990,9 @@
       <c r="J258" t="n">
         <v>-0.02777777777777778</v>
       </c>
+      <c r="K258" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9251,6 +10027,9 @@
       <c r="J259" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K259" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9285,6 +10064,9 @@
       <c r="J260" t="n">
         <v>-0.345679012345679</v>
       </c>
+      <c r="K260" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9319,6 +10101,9 @@
       <c r="J261" t="n">
         <v>0.9487179487179487</v>
       </c>
+      <c r="K261" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9353,6 +10138,9 @@
       <c r="J262" t="n">
         <v>0.05405405405405406</v>
       </c>
+      <c r="K262" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9387,6 +10175,9 @@
       <c r="J263" t="n">
         <v>-1.071428571428571</v>
       </c>
+      <c r="K263" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9421,6 +10212,9 @@
       <c r="J264" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K264" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9455,6 +10249,9 @@
       <c r="J265" t="n">
         <v>-0.308641975308642</v>
       </c>
+      <c r="K265" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9489,6 +10286,9 @@
       <c r="J266" t="n">
         <v>-0.7837837837837838</v>
       </c>
+      <c r="K266" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9523,6 +10323,9 @@
       <c r="J267" t="n">
         <v>0.6000000000000001</v>
       </c>
+      <c r="K267" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9557,6 +10360,9 @@
       <c r="J268" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K268" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9591,6 +10397,9 @@
       <c r="J269" t="n">
         <v>0.04545454545454547</v>
       </c>
+      <c r="K269" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9625,6 +10434,9 @@
       <c r="J270" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K270" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9659,6 +10471,9 @@
       <c r="J271" t="n">
         <v>0.6190476190476191</v>
       </c>
+      <c r="K271" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9693,6 +10508,9 @@
       <c r="J272" t="n">
         <v>-0.6153846153846154</v>
       </c>
+      <c r="K272" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9727,6 +10545,9 @@
       <c r="J273" t="n">
         <v>-1</v>
       </c>
+      <c r="K273" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9761,6 +10582,9 @@
       <c r="J274" t="n">
         <v>-0.282051282051282</v>
       </c>
+      <c r="K274" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9795,6 +10619,9 @@
       <c r="J275" t="n">
         <v>-0.6470588235294117</v>
       </c>
+      <c r="K275" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9829,6 +10656,9 @@
       <c r="J276" t="n">
         <v>-0.4794520547945205</v>
       </c>
+      <c r="K276" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9863,6 +10693,9 @@
       <c r="J277" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K277" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9897,6 +10730,9 @@
       <c r="J278" t="n">
         <v>-0.3287671232876712</v>
       </c>
+      <c r="K278" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9931,6 +10767,9 @@
       <c r="J279" t="n">
         <v>0.4594594594594595</v>
       </c>
+      <c r="K279" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9965,6 +10804,9 @@
       <c r="J280" t="n">
         <v>0.4571428571428571</v>
       </c>
+      <c r="K280" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9999,6 +10841,9 @@
       <c r="J281" t="n">
         <v>0.1621621621621622</v>
       </c>
+      <c r="K281" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10033,6 +10878,9 @@
       <c r="J282" t="n">
         <v>-0.2307692307692308</v>
       </c>
+      <c r="K282" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10067,6 +10915,9 @@
       <c r="J283" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K283" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10101,6 +10952,9 @@
       <c r="J284" t="n">
         <v>0</v>
       </c>
+      <c r="K284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10135,6 +10989,9 @@
       <c r="J285" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K285" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10169,6 +11026,9 @@
       <c r="J286" t="n">
         <v>-0.8461538461538461</v>
       </c>
+      <c r="K286" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10203,6 +11063,9 @@
       <c r="J287" t="n">
         <v>-0.7391304347826086</v>
       </c>
+      <c r="K287" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10237,6 +11100,9 @@
       <c r="J288" t="n">
         <v>0</v>
       </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10271,6 +11137,9 @@
       <c r="J289" t="n">
         <v>0.3999999999999999</v>
       </c>
+      <c r="K289" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10305,6 +11174,9 @@
       <c r="J290" t="n">
         <v>-0.164179104477612</v>
       </c>
+      <c r="K290" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10339,6 +11211,9 @@
       <c r="J291" t="n">
         <v>0.4090909090909091</v>
       </c>
+      <c r="K291" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10373,6 +11248,9 @@
       <c r="J292" t="n">
         <v>0.02127659574468088</v>
       </c>
+      <c r="K292" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10407,6 +11285,9 @@
       <c r="J293" t="n">
         <v>0.6666666666666667</v>
       </c>
+      <c r="K293" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10441,6 +11322,9 @@
       <c r="J294" t="n">
         <v>-0.5588235294117647</v>
       </c>
+      <c r="K294" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10475,6 +11359,9 @@
       <c r="J295" t="n">
         <v>-0.5999999999999996</v>
       </c>
+      <c r="K295" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10509,6 +11396,9 @@
       <c r="J296" t="n">
         <v>-0.5833333333333333</v>
       </c>
+      <c r="K296" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10543,6 +11433,9 @@
       <c r="J297" t="n">
         <v>-1.176470588235294</v>
       </c>
+      <c r="K297" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10577,6 +11470,9 @@
       <c r="J298" t="n">
         <v>-4</v>
       </c>
+      <c r="K298" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10611,6 +11507,9 @@
       <c r="J299" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K299" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10645,6 +11544,9 @@
       <c r="J300" t="n">
         <v>0.5</v>
       </c>
+      <c r="K300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10679,6 +11581,9 @@
       <c r="J301" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K301" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10713,6 +11618,9 @@
       <c r="J302" t="n">
         <v>-0.2539682539682541</v>
       </c>
+      <c r="K302" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10747,6 +11655,9 @@
       <c r="J303" t="n">
         <v>-0.7916666666666666</v>
       </c>
+      <c r="K303" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10781,6 +11692,9 @@
       <c r="J304" t="n">
         <v>-0.5882352941176471</v>
       </c>
+      <c r="K304" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10815,6 +11729,9 @@
       <c r="J305" t="n">
         <v>0.6046511627906977</v>
       </c>
+      <c r="K305" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10849,6 +11766,9 @@
       <c r="J306" t="n">
         <v>-0.6190476190476191</v>
       </c>
+      <c r="K306" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10883,6 +11803,9 @@
       <c r="J307" t="n">
         <v>-1.625</v>
       </c>
+      <c r="K307" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10917,6 +11840,9 @@
       <c r="J308" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K308" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10951,6 +11877,9 @@
       <c r="J309" t="n">
         <v>-0.4999999999999998</v>
       </c>
+      <c r="K309" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10985,6 +11914,9 @@
       <c r="J310" t="n">
         <v>-0.05000000000000004</v>
       </c>
+      <c r="K310" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11019,6 +11951,9 @@
       <c r="J311" t="n">
         <v>-0.09090909090909094</v>
       </c>
+      <c r="K311" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11053,6 +11988,9 @@
       <c r="J312" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K312" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11087,6 +12025,9 @@
       <c r="J313" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K313" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11121,6 +12062,9 @@
       <c r="J314" t="n">
         <v>0.8636363636363636</v>
       </c>
+      <c r="K314" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11155,6 +12099,9 @@
       <c r="J315" t="n">
         <v>-0.05263157894736842</v>
       </c>
+      <c r="K315" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11189,6 +12136,9 @@
       <c r="J316" t="n">
         <v>-0.7142857142857143</v>
       </c>
+      <c r="K316" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11223,6 +12173,9 @@
       <c r="J317" t="n">
         <v>-0.6111111111111112</v>
       </c>
+      <c r="K317" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11257,6 +12210,9 @@
       <c r="J318" t="n">
         <v>-0.540983606557377</v>
       </c>
+      <c r="K318" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11291,6 +12247,9 @@
       <c r="J319" t="n">
         <v>-1</v>
       </c>
+      <c r="K319" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11325,6 +12284,9 @@
       <c r="J320" t="n">
         <v>-0.6056338028169015</v>
       </c>
+      <c r="K320" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11359,6 +12321,9 @@
       <c r="J321" t="n">
         <v>-0.5999999999999999</v>
       </c>
+      <c r="K321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11393,6 +12358,9 @@
       <c r="J322" t="n">
         <v>-0.2857142857142856</v>
       </c>
+      <c r="K322" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11427,6 +12395,9 @@
       <c r="J323" t="n">
         <v>0</v>
       </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11461,6 +12432,9 @@
       <c r="J324" t="n">
         <v>-1</v>
       </c>
+      <c r="K324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11495,6 +12469,9 @@
       <c r="J325" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K325" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11529,6 +12506,9 @@
       <c r="J326" t="n">
         <v>-0.36</v>
       </c>
+      <c r="K326" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11563,6 +12543,9 @@
       <c r="J327" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K327" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11597,6 +12580,9 @@
       <c r="J328" t="n">
         <v>-0.9722222222222222</v>
       </c>
+      <c r="K328" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11631,6 +12617,9 @@
       <c r="J329" t="n">
         <v>-0.3508771929824562</v>
       </c>
+      <c r="K329" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11665,6 +12654,9 @@
       <c r="J330" t="n">
         <v>-0.9523809523809524</v>
       </c>
+      <c r="K330" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11699,6 +12691,9 @@
       <c r="J331" t="n">
         <v>-0.4736842105263158</v>
       </c>
+      <c r="K331" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11733,6 +12728,9 @@
       <c r="J332" t="n">
         <v>-0.2727272727272727</v>
       </c>
+      <c r="K332" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11767,6 +12765,9 @@
       <c r="J333" t="n">
         <v>-0.4029850746268657</v>
       </c>
+      <c r="K333" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11801,6 +12802,9 @@
       <c r="J334" t="n">
         <v>-0.65625</v>
       </c>
+      <c r="K334" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11835,6 +12839,9 @@
       <c r="J335" t="n">
         <v>-0.3472222222222221</v>
       </c>
+      <c r="K335" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11869,6 +12876,9 @@
       <c r="J336" t="n">
         <v>-0.2121212121212121</v>
       </c>
+      <c r="K336" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11903,6 +12913,9 @@
       <c r="J337" t="n">
         <v>-0.7173913043478262</v>
       </c>
+      <c r="K337" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11937,6 +12950,9 @@
       <c r="J338" t="n">
         <v>-0.6296296296296295</v>
       </c>
+      <c r="K338" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11971,6 +12987,9 @@
       <c r="J339" t="n">
         <v>-0.2592592592592592</v>
       </c>
+      <c r="K339" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12005,6 +13024,9 @@
       <c r="J340" t="n">
         <v>-1.199999999999999</v>
       </c>
+      <c r="K340" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12039,6 +13061,9 @@
       <c r="J341" t="n">
         <v>-1</v>
       </c>
+      <c r="K341" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -12073,6 +13098,9 @@
       <c r="J342" t="n">
         <v>0.04761904761904767</v>
       </c>
+      <c r="K342" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -12107,6 +13135,9 @@
       <c r="J343" t="n">
         <v>0</v>
       </c>
+      <c r="K343" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -12141,6 +13172,9 @@
       <c r="J344" t="n">
         <v>-0.6190476190476191</v>
       </c>
+      <c r="K344" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -12175,6 +13209,9 @@
       <c r="J345" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K345" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -12209,6 +13246,9 @@
       <c r="J346" t="n">
         <v>0.5</v>
       </c>
+      <c r="K346" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -12243,6 +13283,9 @@
       <c r="J347" t="n">
         <v>-0.323076923076923</v>
       </c>
+      <c r="K347" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -12277,6 +13320,9 @@
       <c r="J348" t="n">
         <v>-0.4444444444444446</v>
       </c>
+      <c r="K348" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12311,6 +13357,9 @@
       <c r="J349" t="n">
         <v>-0.07142857142857145</v>
       </c>
+      <c r="K349" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -12345,6 +13394,9 @@
       <c r="J350" t="n">
         <v>-0.7407407407407407</v>
       </c>
+      <c r="K350" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -12379,6 +13431,9 @@
       <c r="J351" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K351" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -12413,6 +13468,9 @@
       <c r="J352" t="n">
         <v>-0.1515151515151515</v>
       </c>
+      <c r="K352" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -12447,6 +13505,9 @@
       <c r="J353" t="n">
         <v>-0.4848484848484849</v>
       </c>
+      <c r="K353" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -12481,6 +13542,9 @@
       <c r="J354" t="n">
         <v>-0.3928571428571429</v>
       </c>
+      <c r="K354" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -12515,6 +13579,9 @@
       <c r="J355" t="n">
         <v>0.6666666666666666</v>
       </c>
+      <c r="K355" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -12549,6 +13616,9 @@
       <c r="J356" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K356" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -12583,6 +13653,9 @@
       <c r="J357" t="n">
         <v>0.9523809523809523</v>
       </c>
+      <c r="K357" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -12617,6 +13690,9 @@
       <c r="J358" t="n">
         <v>-0.3392857142857144</v>
       </c>
+      <c r="K358" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -12651,6 +13727,9 @@
       <c r="J359" t="n">
         <v>0.07142857142857142</v>
       </c>
+      <c r="K359" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -12685,6 +13764,9 @@
       <c r="J360" t="n">
         <v>0.2972972972972974</v>
       </c>
+      <c r="K360" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12719,6 +13801,9 @@
       <c r="J361" t="n">
         <v>-0.3048780487804879</v>
       </c>
+      <c r="K361" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -12753,6 +13838,9 @@
       <c r="J362" t="n">
         <v>-0.4411764705882353</v>
       </c>
+      <c r="K362" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -12787,6 +13875,9 @@
       <c r="J363" t="n">
         <v>-0.3939393939393939</v>
       </c>
+      <c r="K363" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -12821,6 +13912,9 @@
       <c r="J364" t="n">
         <v>-0.4358974358974359</v>
       </c>
+      <c r="K364" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -12855,6 +13949,9 @@
       <c r="J365" t="n">
         <v>-0.1578947368421053</v>
       </c>
+      <c r="K365" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -12889,6 +13986,9 @@
       <c r="J366" t="n">
         <v>-0.4222222222222223</v>
       </c>
+      <c r="K366" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -12923,6 +14023,9 @@
       <c r="J367" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K367" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -12957,6 +14060,9 @@
       <c r="J368" t="n">
         <v>0</v>
       </c>
+      <c r="K368" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -12991,6 +14097,9 @@
       <c r="J369" t="n">
         <v>-0.3095238095238095</v>
       </c>
+      <c r="K369" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -13025,6 +14134,9 @@
       <c r="J370" t="n">
         <v>-0.9444444444444445</v>
       </c>
+      <c r="K370" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -13059,6 +14171,9 @@
       <c r="J371" t="n">
         <v>-0.4285714285714286</v>
       </c>
+      <c r="K371" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -13093,6 +14208,9 @@
       <c r="J372" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K372" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -13127,6 +14245,9 @@
       <c r="J373" t="n">
         <v>-0.3529411764705883</v>
       </c>
+      <c r="K373" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -13161,6 +14282,9 @@
       <c r="J374" t="n">
         <v>-0.6818181818181821</v>
       </c>
+      <c r="K374" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -13195,6 +14319,9 @@
       <c r="J375" t="n">
         <v>0.8235294117647058</v>
       </c>
+      <c r="K375" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -13229,6 +14356,9 @@
       <c r="J376" t="n">
         <v>-0.3783783783783784</v>
       </c>
+      <c r="K376" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -13263,6 +14393,9 @@
       <c r="J377" t="n">
         <v>-0.3684210526315789</v>
       </c>
+      <c r="K377" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -13297,6 +14430,9 @@
       <c r="J378" t="n">
         <v>-1.333333333333334</v>
       </c>
+      <c r="K378" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -13331,6 +14467,9 @@
       <c r="J379" t="n">
         <v>-0.4313725490196079</v>
       </c>
+      <c r="K379" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -13365,6 +14504,9 @@
       <c r="J380" t="n">
         <v>-0.3088235294117647</v>
       </c>
+      <c r="K380" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -13399,6 +14541,9 @@
       <c r="J381" t="n">
         <v>0.08333333333333326</v>
       </c>
+      <c r="K381" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -13433,6 +14578,9 @@
       <c r="J382" t="n">
         <v>-0.09090909090909094</v>
       </c>
+      <c r="K382" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -13467,6 +14615,9 @@
       <c r="J383" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K383" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -13501,6 +14652,9 @@
       <c r="J384" t="n">
         <v>-0.6000000000000001</v>
       </c>
+      <c r="K384" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -13535,6 +14689,9 @@
       <c r="J385" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K385" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -13569,6 +14726,9 @@
       <c r="J386" t="n">
         <v>-0.2999999999999998</v>
       </c>
+      <c r="K386" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -13603,6 +14763,9 @@
       <c r="J387" t="n">
         <v>-0.4814814814814814</v>
       </c>
+      <c r="K387" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -13637,6 +14800,9 @@
       <c r="J388" t="n">
         <v>1.03448275862069</v>
       </c>
+      <c r="K388" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -13671,6 +14837,9 @@
       <c r="J389" t="n">
         <v>-0.3</v>
       </c>
+      <c r="K389" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -13705,6 +14874,9 @@
       <c r="J390" t="n">
         <v>0.3750000000000001</v>
       </c>
+      <c r="K390" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -13739,6 +14911,9 @@
       <c r="J391" t="n">
         <v>-1.8</v>
       </c>
+      <c r="K391" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -13773,6 +14948,9 @@
       <c r="J392" t="n">
         <v>-0.2790697674418604</v>
       </c>
+      <c r="K392" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -13807,6 +14985,9 @@
       <c r="J393" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K393" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -13841,6 +15022,9 @@
       <c r="J394" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K394" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -13875,6 +15059,9 @@
       <c r="J395" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K395" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -13909,6 +15096,9 @@
       <c r="J396" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K396" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -13943,6 +15133,9 @@
       <c r="J397" t="n">
         <v>0.08571428571428572</v>
       </c>
+      <c r="K397" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -13977,6 +15170,9 @@
       <c r="J398" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K398" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -14011,6 +15207,9 @@
       <c r="J399" t="n">
         <v>-0.8999999999999999</v>
       </c>
+      <c r="K399" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -14045,6 +15244,9 @@
       <c r="J400" t="n">
         <v>-1.833333333333333</v>
       </c>
+      <c r="K400" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -14079,6 +15281,9 @@
       <c r="J401" t="n">
         <v>-0.3877551020408163</v>
       </c>
+      <c r="K401" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -14113,6 +15318,9 @@
       <c r="J402" t="n">
         <v>-0.2727272727272727</v>
       </c>
+      <c r="K402" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -14147,6 +15355,9 @@
       <c r="J403" t="n">
         <v>-0.4411764705882353</v>
       </c>
+      <c r="K403" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -14181,6 +15392,9 @@
       <c r="J404" t="n">
         <v>-0.9259259259259256</v>
       </c>
+      <c r="K404" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -14215,6 +15429,9 @@
       <c r="J405" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K405" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -14249,6 +15466,9 @@
       <c r="J406" t="n">
         <v>0.2105263157894737</v>
       </c>
+      <c r="K406" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -14283,6 +15503,9 @@
       <c r="J407" t="n">
         <v>-0.7142857142857142</v>
       </c>
+      <c r="K407" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -14317,6 +15540,9 @@
       <c r="J408" t="n">
         <v>-1.1</v>
       </c>
+      <c r="K408" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -14351,6 +15577,9 @@
       <c r="J409" t="n">
         <v>-0.8636363636363635</v>
       </c>
+      <c r="K409" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -14385,6 +15614,9 @@
       <c r="J410" t="n">
         <v>-0.368421052631579</v>
       </c>
+      <c r="K410" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -14419,6 +15651,9 @@
       <c r="J411" t="n">
         <v>-0.07142857142857117</v>
       </c>
+      <c r="K411" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -14453,6 +15688,9 @@
       <c r="J412" t="n">
         <v>0</v>
       </c>
+      <c r="K412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -14487,6 +15725,9 @@
       <c r="J413" t="n">
         <v>-0.7380952380952381</v>
       </c>
+      <c r="K413" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -14521,6 +15762,9 @@
       <c r="J414" t="n">
         <v>-0.103448275862069</v>
       </c>
+      <c r="K414" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -14555,6 +15799,9 @@
       <c r="J415" t="n">
         <v>-1.307692307692308</v>
       </c>
+      <c r="K415" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -14589,6 +15836,9 @@
       <c r="J416" t="n">
         <v>-0.3108108108108107</v>
       </c>
+      <c r="K416" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -14623,6 +15873,9 @@
       <c r="J417" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K417" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -14657,6 +15910,9 @@
       <c r="J418" t="n">
         <v>-1.428571428571428</v>
       </c>
+      <c r="K418" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -14691,6 +15947,9 @@
       <c r="J419" t="n">
         <v>-0.01639344262295084</v>
       </c>
+      <c r="K419" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -14725,6 +15984,9 @@
       <c r="J420" t="n">
         <v>-0.736842105263158</v>
       </c>
+      <c r="K420" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -14759,6 +16021,9 @@
       <c r="J421" t="n">
         <v>-0.4605263157894737</v>
       </c>
+      <c r="K421" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -14793,6 +16058,9 @@
       <c r="J422" t="n">
         <v>-0.2222222222222223</v>
       </c>
+      <c r="K422" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -14827,6 +16095,9 @@
       <c r="J423" t="n">
         <v>-0.2077922077922079</v>
       </c>
+      <c r="K423" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -14861,6 +16132,9 @@
       <c r="J424" t="n">
         <v>-0.3636363636363635</v>
       </c>
+      <c r="K424" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -14895,6 +16169,9 @@
       <c r="J425" t="n">
         <v>-1.066666666666667</v>
       </c>
+      <c r="K425" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -14929,6 +16206,9 @@
       <c r="J426" t="n">
         <v>-0.4210526315789473</v>
       </c>
+      <c r="K426" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -14963,6 +16243,9 @@
       <c r="J427" t="n">
         <v>-0.4406779661016949</v>
       </c>
+      <c r="K427" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -14997,6 +16280,9 @@
       <c r="J428" t="n">
         <v>0</v>
       </c>
+      <c r="K428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -15031,6 +16317,9 @@
       <c r="J429" t="n">
         <v>-2</v>
       </c>
+      <c r="K429" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -15065,6 +16354,9 @@
       <c r="J430" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K430" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -15099,6 +16391,9 @@
       <c r="J431" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K431" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -15133,6 +16428,9 @@
       <c r="J432" t="n">
         <v>-0.5135135135135136</v>
       </c>
+      <c r="K432" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -15167,6 +16465,9 @@
       <c r="J433" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K433" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -15201,6 +16502,9 @@
       <c r="J434" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K434" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -15235,6 +16539,9 @@
       <c r="J435" t="n">
         <v>-0.6944444444444444</v>
       </c>
+      <c r="K435" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -15269,6 +16576,9 @@
       <c r="J436" t="n">
         <v>0.9166666666666666</v>
       </c>
+      <c r="K436" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -15303,6 +16613,9 @@
       <c r="J437" t="n">
         <v>-1.571428571428571</v>
       </c>
+      <c r="K437" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -15337,6 +16650,9 @@
       <c r="J438" t="n">
         <v>-0.6590909090909092</v>
       </c>
+      <c r="K438" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -15371,6 +16687,9 @@
       <c r="J439" t="n">
         <v>1</v>
       </c>
+      <c r="K439" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -15405,6 +16724,9 @@
       <c r="J440" t="n">
         <v>-1.125</v>
       </c>
+      <c r="K440" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -15439,6 +16761,9 @@
       <c r="J441" t="n">
         <v>0</v>
       </c>
+      <c r="K441" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -15473,6 +16798,9 @@
       <c r="J442" t="n">
         <v>0.05882352941176472</v>
       </c>
+      <c r="K442" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -15507,6 +16835,9 @@
       <c r="J443" t="n">
         <v>-0.5423728813559322</v>
       </c>
+      <c r="K443" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -15541,6 +16872,9 @@
       <c r="J444" t="n">
         <v>-0.2571428571428572</v>
       </c>
+      <c r="K444" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -15575,6 +16909,9 @@
       <c r="J445" t="n">
         <v>-0.3636363636363636</v>
       </c>
+      <c r="K445" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -15609,6 +16946,9 @@
       <c r="J446" t="n">
         <v>-1.428571428571428</v>
       </c>
+      <c r="K446" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -15643,6 +16983,9 @@
       <c r="J447" t="n">
         <v>1.090909090909091</v>
       </c>
+      <c r="K447" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -15677,6 +17020,9 @@
       <c r="J448" t="n">
         <v>-0.7222222222222222</v>
       </c>
+      <c r="K448" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -15711,6 +17057,9 @@
       <c r="J449" t="n">
         <v>0.3125</v>
       </c>
+      <c r="K449" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -15745,6 +17094,9 @@
       <c r="J450" t="n">
         <v>-1</v>
       </c>
+      <c r="K450" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -15779,6 +17131,9 @@
       <c r="J451" t="n">
         <v>0.05263157894736842</v>
       </c>
+      <c r="K451" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -15813,6 +17168,9 @@
       <c r="J452" t="n">
         <v>-0.8055555555555556</v>
       </c>
+      <c r="K452" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -15847,6 +17205,9 @@
       <c r="J453" t="n">
         <v>-0.5333333333333333</v>
       </c>
+      <c r="K453" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -15881,6 +17242,9 @@
       <c r="J454" t="n">
         <v>-0.05405405405405406</v>
       </c>
+      <c r="K454" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -15915,6 +17279,9 @@
       <c r="J455" t="n">
         <v>-0.4696969696969697</v>
       </c>
+      <c r="K455" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -15949,6 +17316,9 @@
       <c r="J456" t="n">
         <v>0.631578947368421</v>
       </c>
+      <c r="K456" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -15983,6 +17353,9 @@
       <c r="J457" t="n">
         <v>-0.3376623376623377</v>
       </c>
+      <c r="K457" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -16017,6 +17390,9 @@
       <c r="J458" t="n">
         <v>-0.5510204081632654</v>
       </c>
+      <c r="K458" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -16049,6 +17425,9 @@
       <c r="J459" t="n">
         <v>-1</v>
       </c>
+      <c r="K459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -16083,6 +17462,9 @@
       <c r="J460" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="K460" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -16117,6 +17499,9 @@
       <c r="J461" t="n">
         <v>-0.4545454545454545</v>
       </c>
+      <c r="K461" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -16151,6 +17536,9 @@
       <c r="J462" t="n">
         <v>-2.25</v>
       </c>
+      <c r="K462" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -16185,6 +17573,9 @@
       <c r="J463" t="n">
         <v>-4</v>
       </c>
+      <c r="K463" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -16219,6 +17610,9 @@
       <c r="J464" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K464" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -16253,6 +17647,9 @@
       <c r="J465" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K465" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -16287,6 +17684,9 @@
       <c r="J466" t="n">
         <v>-0.7083333333333333</v>
       </c>
+      <c r="K466" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -16321,6 +17721,9 @@
       <c r="J467" t="n">
         <v>-0.22</v>
       </c>
+      <c r="K467" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -16355,6 +17758,9 @@
       <c r="J468" t="n">
         <v>-0.3529411764705883</v>
       </c>
+      <c r="K468" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -16389,6 +17795,9 @@
       <c r="J469" t="n">
         <v>-1</v>
       </c>
+      <c r="K469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -16423,6 +17832,9 @@
       <c r="J470" t="n">
         <v>-1.166666666666667</v>
       </c>
+      <c r="K470" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -16457,6 +17869,9 @@
       <c r="J471" t="n">
         <v>-1.2</v>
       </c>
+      <c r="K471" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -16491,6 +17906,9 @@
       <c r="J472" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K472" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -16525,6 +17943,9 @@
       <c r="J473" t="n">
         <v>-0.1935483870967742</v>
       </c>
+      <c r="K473" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -16559,6 +17980,9 @@
       <c r="J474" t="n">
         <v>-0.916666666666667</v>
       </c>
+      <c r="K474" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -16593,6 +18017,9 @@
       <c r="J475" t="n">
         <v>-0.6470588235294118</v>
       </c>
+      <c r="K475" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -16627,6 +18054,9 @@
       <c r="J476" t="n">
         <v>-0.3571428571428572</v>
       </c>
+      <c r="K476" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -16661,6 +18091,9 @@
       <c r="J477" t="n">
         <v>-0.4029850746268657</v>
       </c>
+      <c r="K477" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -16695,6 +18128,9 @@
       <c r="J478" t="n">
         <v>-0.4125</v>
       </c>
+      <c r="K478" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -16729,6 +18165,9 @@
       <c r="J479" t="n">
         <v>0.5517241379310345</v>
       </c>
+      <c r="K479" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -16763,6 +18202,9 @@
       <c r="J480" t="n">
         <v>0.4285714285714286</v>
       </c>
+      <c r="K480" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -16797,6 +18239,9 @@
       <c r="J481" t="n">
         <v>-0.1964285714285715</v>
       </c>
+      <c r="K481" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -16831,6 +18276,9 @@
       <c r="J482" t="n">
         <v>-0.8333333333333334</v>
       </c>
+      <c r="K482" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -16865,6 +18313,9 @@
       <c r="J483" t="n">
         <v>-0.1153846153846154</v>
       </c>
+      <c r="K483" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -16899,6 +18350,9 @@
       <c r="J484" t="n">
         <v>-0.7142857142857144</v>
       </c>
+      <c r="K484" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -16933,6 +18387,9 @@
       <c r="J485" t="n">
         <v>-0.5652173913043478</v>
       </c>
+      <c r="K485" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -16967,6 +18424,9 @@
       <c r="J486" t="n">
         <v>0</v>
       </c>
+      <c r="K486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -17001,6 +18461,9 @@
       <c r="J487" t="n">
         <v>-0.9999999999999998</v>
       </c>
+      <c r="K487" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -17035,6 +18498,9 @@
       <c r="J488" t="n">
         <v>1.041666666666667</v>
       </c>
+      <c r="K488" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -17069,6 +18535,9 @@
       <c r="J489" t="n">
         <v>-0.6363636363636364</v>
       </c>
+      <c r="K489" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -17103,6 +18572,9 @@
       <c r="J490" t="n">
         <v>-1</v>
       </c>
+      <c r="K490" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -17137,6 +18609,9 @@
       <c r="J491" t="n">
         <v>-0.1780821917808219</v>
       </c>
+      <c r="K491" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -17171,6 +18646,9 @@
       <c r="J492" t="n">
         <v>-0.3777777777777778</v>
       </c>
+      <c r="K492" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -17205,6 +18683,9 @@
       <c r="J493" t="n">
         <v>-2</v>
       </c>
+      <c r="K493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -17239,6 +18720,9 @@
       <c r="J494" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K494" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -17273,6 +18757,9 @@
       <c r="J495" t="n">
         <v>-2</v>
       </c>
+      <c r="K495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -17307,6 +18794,9 @@
       <c r="J496" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K496" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -17341,6 +18831,9 @@
       <c r="J497" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K497" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -17375,6 +18868,9 @@
       <c r="J498" t="n">
         <v>-0.2916666666666666</v>
       </c>
+      <c r="K498" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -17409,6 +18905,9 @@
       <c r="J499" t="n">
         <v>-0.3333333333333335</v>
       </c>
+      <c r="K499" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -17443,6 +18942,9 @@
       <c r="J500" t="n">
         <v>-1.384615384615385</v>
       </c>
+      <c r="K500" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -17477,6 +18979,9 @@
       <c r="J501" t="n">
         <v>-0.4871794871794872</v>
       </c>
+      <c r="K501" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -17511,6 +19016,9 @@
       <c r="J502" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K502" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -17545,6 +19053,9 @@
       <c r="J503" t="n">
         <v>-0.2857142857142858</v>
       </c>
+      <c r="K503" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -17579,6 +19090,9 @@
       <c r="J504" t="n">
         <v>-3</v>
       </c>
+      <c r="K504" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -17613,6 +19127,9 @@
       <c r="J505" t="n">
         <v>-0.3026315789473685</v>
       </c>
+      <c r="K505" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -17647,6 +19164,9 @@
       <c r="J506" t="n">
         <v>-0.3050847457627119</v>
       </c>
+      <c r="K506" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -17681,6 +19201,9 @@
       <c r="J507" t="n">
         <v>-0.2894736842105263</v>
       </c>
+      <c r="K507" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -17715,6 +19238,9 @@
       <c r="J508" t="n">
         <v>-0.03846153846153844</v>
       </c>
+      <c r="K508" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -17749,6 +19275,9 @@
       <c r="J509" t="n">
         <v>0.5217391304347826</v>
       </c>
+      <c r="K509" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -17783,6 +19312,9 @@
       <c r="J510" t="n">
         <v>-5</v>
       </c>
+      <c r="K510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -17817,6 +19349,9 @@
       <c r="J511" t="n">
         <v>0.1379310344827586</v>
       </c>
+      <c r="K511" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -17851,6 +19386,9 @@
       <c r="J512" t="n">
         <v>-0.6363636363636365</v>
       </c>
+      <c r="K512" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -17885,6 +19423,9 @@
       <c r="J513" t="n">
         <v>0.1136363636363636</v>
       </c>
+      <c r="K513" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -17919,6 +19460,9 @@
       <c r="J514" t="n">
         <v>-0.4375</v>
       </c>
+      <c r="K514" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -17953,6 +19497,9 @@
       <c r="J515" t="n">
         <v>-5</v>
       </c>
+      <c r="K515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -17987,6 +19534,9 @@
       <c r="J516" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K516" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -18021,6 +19571,9 @@
       <c r="J517" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="K517" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -18055,6 +19608,9 @@
       <c r="J518" t="n">
         <v>-0.2727272727272727</v>
       </c>
+      <c r="K518" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -18089,6 +19645,9 @@
       <c r="J519" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K519" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -18123,6 +19682,9 @@
       <c r="J520" t="n">
         <v>-0.2926829268292683</v>
       </c>
+      <c r="K520" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -18157,6 +19719,9 @@
       <c r="J521" t="n">
         <v>-0.3461538461538463</v>
       </c>
+      <c r="K521" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -18191,6 +19756,9 @@
       <c r="J522" t="n">
         <v>3</v>
       </c>
+      <c r="K522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -18225,6 +19793,9 @@
       <c r="J523" t="n">
         <v>-0.4358974358974359</v>
       </c>
+      <c r="K523" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -18259,6 +19830,9 @@
       <c r="J524" t="n">
         <v>1.142857142857143</v>
       </c>
+      <c r="K524" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -18293,6 +19867,9 @@
       <c r="J525" t="n">
         <v>-0.3220338983050848</v>
       </c>
+      <c r="K525" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -18327,6 +19904,9 @@
       <c r="J526" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K526" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -18361,6 +19941,9 @@
       <c r="J527" t="n">
         <v>-0.8181818181818182</v>
       </c>
+      <c r="K527" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -18395,6 +19978,9 @@
       <c r="J528" t="n">
         <v>-0.0757575757575758</v>
       </c>
+      <c r="K528" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -18429,6 +20015,9 @@
       <c r="J529" t="n">
         <v>-0.4927536231884058</v>
       </c>
+      <c r="K529" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -18463,6 +20052,9 @@
       <c r="J530" t="n">
         <v>-1</v>
       </c>
+      <c r="K530" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -18497,6 +20089,9 @@
       <c r="J531" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K531" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -18531,6 +20126,9 @@
       <c r="J532" t="n">
         <v>1.147058823529412</v>
       </c>
+      <c r="K532" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -18565,6 +20163,9 @@
       <c r="J533" t="n">
         <v>-0.3541666666666667</v>
       </c>
+      <c r="K533" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -18599,6 +20200,9 @@
       <c r="J534" t="n">
         <v>-1</v>
       </c>
+      <c r="K534" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -18633,6 +20237,9 @@
       <c r="J535" t="n">
         <v>-1.653846153846154</v>
       </c>
+      <c r="K535" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -18667,6 +20274,9 @@
       <c r="J536" t="n">
         <v>-0.08333333333333331</v>
       </c>
+      <c r="K536" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -18701,6 +20311,9 @@
       <c r="J537" t="n">
         <v>-0.4347826086956521</v>
       </c>
+      <c r="K537" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -18735,6 +20348,9 @@
       <c r="J538" t="n">
         <v>1.823529411764706</v>
       </c>
+      <c r="K538" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -18769,6 +20385,9 @@
       <c r="J539" t="n">
         <v>-0.5714285714285715</v>
       </c>
+      <c r="K539" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -18803,6 +20422,9 @@
       <c r="J540" t="n">
         <v>-0.3636363636363638</v>
       </c>
+      <c r="K540" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -18837,6 +20459,9 @@
       <c r="J541" t="n">
         <v>1</v>
       </c>
+      <c r="K541" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -18871,6 +20496,9 @@
       <c r="J542" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K542" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -18905,6 +20533,9 @@
       <c r="J543" t="n">
         <v>-0.2083333333333333</v>
       </c>
+      <c r="K543" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -18939,6 +20570,9 @@
       <c r="J544" t="n">
         <v>-0.5333333333333334</v>
       </c>
+      <c r="K544" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -18973,6 +20607,9 @@
       <c r="J545" t="n">
         <v>-0.9375</v>
       </c>
+      <c r="K545" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -19007,6 +20644,9 @@
       <c r="J546" t="n">
         <v>-0.6428571428571432</v>
       </c>
+      <c r="K546" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -19041,6 +20681,9 @@
       <c r="J547" t="n">
         <v>-0.3132530120481928</v>
       </c>
+      <c r="K547" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -19075,6 +20718,9 @@
       <c r="J548" t="n">
         <v>-0.3333333333333334</v>
       </c>
+      <c r="K548" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -19109,6 +20755,9 @@
       <c r="J549" t="n">
         <v>-0.05263157894736842</v>
       </c>
+      <c r="K549" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -19143,6 +20792,9 @@
       <c r="J550" t="n">
         <v>-0.2738095238095237</v>
       </c>
+      <c r="K550" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -19177,6 +20829,9 @@
       <c r="J551" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K551" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -19211,6 +20866,9 @@
       <c r="J552" t="n">
         <v>-0.7142857142857142</v>
       </c>
+      <c r="K552" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -19245,6 +20903,9 @@
       <c r="J553" t="n">
         <v>0</v>
       </c>
+      <c r="K553" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -19279,6 +20940,9 @@
       <c r="J554" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K554" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -19313,6 +20977,9 @@
       <c r="J555" t="n">
         <v>0.2682926829268293</v>
       </c>
+      <c r="K555" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -19347,6 +21014,9 @@
       <c r="J556" t="n">
         <v>-2</v>
       </c>
+      <c r="K556" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -19381,6 +21051,9 @@
       <c r="J557" t="n">
         <v>-1.142857142857143</v>
       </c>
+      <c r="K557" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -19415,6 +21088,9 @@
       <c r="J558" t="n">
         <v>-0.5625</v>
       </c>
+      <c r="K558" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -19449,6 +21125,9 @@
       <c r="J559" t="n">
         <v>0.4166666666666667</v>
       </c>
+      <c r="K559" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -19483,6 +21162,9 @@
       <c r="J560" t="n">
         <v>-0.4929577464788732</v>
       </c>
+      <c r="K560" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -19517,6 +21199,9 @@
       <c r="J561" t="n">
         <v>-1.133333333333334</v>
       </c>
+      <c r="K561" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -19551,6 +21236,9 @@
       <c r="J562" t="n">
         <v>-0.3809523809523809</v>
       </c>
+      <c r="K562" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -19585,6 +21273,9 @@
       <c r="J563" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K563" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -19619,6 +21310,9 @@
       <c r="J564" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K564" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -19653,6 +21347,9 @@
       <c r="J565" t="n">
         <v>0</v>
       </c>
+      <c r="K565" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -19687,6 +21384,9 @@
       <c r="J566" t="n">
         <v>-0.3478260869565218</v>
       </c>
+      <c r="K566" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -19721,6 +21421,9 @@
       <c r="J567" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K567" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -19755,6 +21458,9 @@
       <c r="J568" t="n">
         <v>-3.142857142857143</v>
       </c>
+      <c r="K568" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -19789,6 +21495,9 @@
       <c r="J569" t="n">
         <v>-0.2368421052631579</v>
       </c>
+      <c r="K569" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -19821,6 +21530,9 @@
       <c r="J570" t="n">
         <v>0</v>
       </c>
+      <c r="K570" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -19855,6 +21567,9 @@
       <c r="J571" t="n">
         <v>1.25</v>
       </c>
+      <c r="K571" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -19889,6 +21604,9 @@
       <c r="J572" t="n">
         <v>-0.8333333333333335</v>
       </c>
+      <c r="K572" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -19923,6 +21641,9 @@
       <c r="J573" t="n">
         <v>-0.5142857142857142</v>
       </c>
+      <c r="K573" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -19957,6 +21678,9 @@
       <c r="J574" t="n">
         <v>-0.4074074074074074</v>
       </c>
+      <c r="K574" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -19991,6 +21715,9 @@
       <c r="J575" t="n">
         <v>-0.4626865671641791</v>
       </c>
+      <c r="K575" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -20025,6 +21752,9 @@
       <c r="J576" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K576" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -20059,6 +21789,9 @@
       <c r="J577" t="n">
         <v>-6</v>
       </c>
+      <c r="K577" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -20093,6 +21826,9 @@
       <c r="J578" t="n">
         <v>-1.214285714285714</v>
       </c>
+      <c r="K578" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -20127,6 +21863,9 @@
       <c r="J579" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K579" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -20161,6 +21900,9 @@
       <c r="J580" t="n">
         <v>-0.09999999999999998</v>
       </c>
+      <c r="K580" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -20195,6 +21937,9 @@
       <c r="J581" t="n">
         <v>-0.3157894736842105</v>
       </c>
+      <c r="K581" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -20229,6 +21974,9 @@
       <c r="J582" t="n">
         <v>-0.4146341463414634</v>
       </c>
+      <c r="K582" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -20263,6 +22011,9 @@
       <c r="J583" t="n">
         <v>-0.2571428571428571</v>
       </c>
+      <c r="K583" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -20297,6 +22048,9 @@
       <c r="J584" t="n">
         <v>0.1428571428571429</v>
       </c>
+      <c r="K584" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -20331,6 +22085,9 @@
       <c r="J585" t="n">
         <v>0.4857142857142858</v>
       </c>
+      <c r="K585" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -20365,6 +22122,9 @@
       <c r="J586" t="n">
         <v>-0.8947368421052633</v>
       </c>
+      <c r="K586" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -20399,6 +22159,9 @@
       <c r="J587" t="n">
         <v>-0.2112676056338028</v>
       </c>
+      <c r="K587" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -20433,6 +22196,9 @@
       <c r="J588" t="n">
         <v>-0.05000000000000004</v>
       </c>
+      <c r="K588" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -20467,6 +22233,9 @@
       <c r="J589" t="n">
         <v>-0.3870967741935484</v>
       </c>
+      <c r="K589" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -20501,6 +22270,9 @@
       <c r="J590" t="n">
         <v>-1</v>
       </c>
+      <c r="K590" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -20535,6 +22307,9 @@
       <c r="J591" t="n">
         <v>-1.214285714285714</v>
       </c>
+      <c r="K591" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -20569,6 +22344,9 @@
       <c r="J592" t="n">
         <v>0.9999999999999998</v>
       </c>
+      <c r="K592" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -20603,6 +22381,9 @@
       <c r="J593" t="n">
         <v>-0.1944444444444444</v>
       </c>
+      <c r="K593" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -20637,6 +22418,9 @@
       <c r="J594" t="n">
         <v>-0.2000000000000001</v>
       </c>
+      <c r="K594" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -20671,6 +22455,9 @@
       <c r="J595" t="n">
         <v>-5</v>
       </c>
+      <c r="K595" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -20705,6 +22492,9 @@
       <c r="J596" t="n">
         <v>-0.1627906976744186</v>
       </c>
+      <c r="K596" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -20739,6 +22529,9 @@
       <c r="J597" t="n">
         <v>-0.7142857142857142</v>
       </c>
+      <c r="K597" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -20773,6 +22566,9 @@
       <c r="J598" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K598" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -20807,6 +22603,9 @@
       <c r="J599" t="n">
         <v>-0.3698630136986302</v>
       </c>
+      <c r="K599" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -20841,6 +22640,9 @@
       <c r="J600" t="n">
         <v>-0.4090909090909092</v>
       </c>
+      <c r="K600" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -20875,6 +22677,9 @@
       <c r="J601" t="n">
         <v>-0.3424657534246576</v>
       </c>
+      <c r="K601" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -20909,6 +22714,9 @@
       <c r="J602" t="n">
         <v>-0.9166666666666666</v>
       </c>
+      <c r="K602" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -20943,6 +22751,9 @@
       <c r="J603" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K603" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -20977,6 +22788,9 @@
       <c r="J604" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K604" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -21011,6 +22825,9 @@
       <c r="J605" t="n">
         <v>-2.5</v>
       </c>
+      <c r="K605" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -21045,6 +22862,9 @@
       <c r="J606" t="n">
         <v>-0.32</v>
       </c>
+      <c r="K606" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -21079,6 +22899,9 @@
       <c r="J607" t="n">
         <v>-0.4782608695652174</v>
       </c>
+      <c r="K607" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -21113,6 +22936,9 @@
       <c r="J608" t="n">
         <v>-0.6842105263157896</v>
       </c>
+      <c r="K608" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -21147,6 +22973,9 @@
       <c r="J609" t="n">
         <v>0.6097560975609757</v>
       </c>
+      <c r="K609" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -21181,6 +23010,9 @@
       <c r="J610" t="n">
         <v>-0.9583333333333333</v>
       </c>
+      <c r="K610" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -21215,6 +23047,9 @@
       <c r="J611" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K611" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -21249,6 +23084,9 @@
       <c r="J612" t="n">
         <v>-0.2666666666666667</v>
       </c>
+      <c r="K612" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -21283,6 +23121,9 @@
       <c r="J613" t="n">
         <v>0.4571428571428573</v>
       </c>
+      <c r="K613" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -21317,6 +23158,9 @@
       <c r="J614" t="n">
         <v>0</v>
       </c>
+      <c r="K614" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -21351,6 +23195,9 @@
       <c r="J615" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K615" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -21385,6 +23232,9 @@
       <c r="J616" t="n">
         <v>-3.5</v>
       </c>
+      <c r="K616" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -21419,6 +23269,9 @@
       <c r="J617" t="n">
         <v>-0.5250000000000001</v>
       </c>
+      <c r="K617" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -21453,6 +23306,9 @@
       <c r="J618" t="n">
         <v>-0.4482758620689655</v>
       </c>
+      <c r="K618" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -21487,6 +23343,9 @@
       <c r="J619" t="n">
         <v>-0.8604651162790697</v>
       </c>
+      <c r="K619" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -21521,6 +23380,9 @@
       <c r="J620" t="n">
         <v>-0.9487179487179489</v>
       </c>
+      <c r="K620" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -21555,6 +23417,9 @@
       <c r="J621" t="n">
         <v>1.545454545454545</v>
       </c>
+      <c r="K621" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -21589,6 +23454,9 @@
       <c r="J622" t="n">
         <v>0</v>
       </c>
+      <c r="K622" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -21623,6 +23491,9 @@
       <c r="J623" t="n">
         <v>0.103448275862069</v>
       </c>
+      <c r="K623" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -21657,6 +23528,9 @@
       <c r="J624" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K624" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -21691,6 +23565,9 @@
       <c r="J625" t="n">
         <v>-0.8333333333333333</v>
       </c>
+      <c r="K625" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -21725,6 +23602,9 @@
       <c r="J626" t="n">
         <v>-0.7272727272727271</v>
       </c>
+      <c r="K626" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -21759,6 +23639,9 @@
       <c r="J627" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K627" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -21793,6 +23676,9 @@
       <c r="J628" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K628" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -21827,6 +23713,9 @@
       <c r="J629" t="n">
         <v>-1</v>
       </c>
+      <c r="K629" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -21861,6 +23750,9 @@
       <c r="J630" t="n">
         <v>-0.4545454545454546</v>
       </c>
+      <c r="K630" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -21895,6 +23787,9 @@
       <c r="J631" t="n">
         <v>-1.15</v>
       </c>
+      <c r="K631" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -21929,6 +23824,9 @@
       <c r="J632" t="n">
         <v>0.6896551724137931</v>
       </c>
+      <c r="K632" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -21963,6 +23861,9 @@
       <c r="J633" t="n">
         <v>-0.5714285714285714</v>
       </c>
+      <c r="K633" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -21997,6 +23898,9 @@
       <c r="J634" t="n">
         <v>0.09677419354838712</v>
       </c>
+      <c r="K634" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -22031,6 +23935,9 @@
       <c r="J635" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K635" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -22065,6 +23972,9 @@
       <c r="J636" t="n">
         <v>-0.4285714285714286</v>
       </c>
+      <c r="K636" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -22099,6 +24009,9 @@
       <c r="J637" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K637" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -22133,6 +24046,9 @@
       <c r="J638" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K638" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -22167,6 +24083,9 @@
       <c r="J639" t="n">
         <v>-2.066666666666667</v>
       </c>
+      <c r="K639" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -22201,6 +24120,9 @@
       <c r="J640" t="n">
         <v>-0.2318840579710145</v>
       </c>
+      <c r="K640" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -22235,6 +24157,9 @@
       <c r="J641" t="n">
         <v>-1.111111111111111</v>
       </c>
+      <c r="K641" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -22269,6 +24194,9 @@
       <c r="J642" t="n">
         <v>-0.3552631578947368</v>
       </c>
+      <c r="K642" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -22303,6 +24231,9 @@
       <c r="J643" t="n">
         <v>-2</v>
       </c>
+      <c r="K643" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -22337,6 +24268,9 @@
       <c r="J644" t="n">
         <v>-0.6666666666666661</v>
       </c>
+      <c r="K644" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -22371,6 +24305,9 @@
       <c r="J645" t="n">
         <v>-0.7777777777777777</v>
       </c>
+      <c r="K645" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -22405,6 +24342,9 @@
       <c r="J646" t="n">
         <v>-0.2058823529411764</v>
       </c>
+      <c r="K646" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -22439,6 +24379,9 @@
       <c r="J647" t="n">
         <v>-0.4666666666666667</v>
       </c>
+      <c r="K647" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -22473,6 +24416,9 @@
       <c r="J648" t="n">
         <v>0.08333333333333337</v>
       </c>
+      <c r="K648" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -22507,6 +24453,9 @@
       <c r="J649" t="n">
         <v>-2.571428571428571</v>
       </c>
+      <c r="K649" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -22541,6 +24490,9 @@
       <c r="J650" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K650" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -22575,6 +24527,9 @@
       <c r="J651" t="n">
         <v>-0.7272727272727272</v>
       </c>
+      <c r="K651" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -22609,6 +24564,9 @@
       <c r="J652" t="n">
         <v>-2</v>
       </c>
+      <c r="K652" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -22643,6 +24601,9 @@
       <c r="J653" t="n">
         <v>-0.05714285714285711</v>
       </c>
+      <c r="K653" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -22677,6 +24638,9 @@
       <c r="J654" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K654" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -22711,6 +24675,9 @@
       <c r="J655" t="n">
         <v>0.4545454545454545</v>
       </c>
+      <c r="K655" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -22745,6 +24712,9 @@
       <c r="J656" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K656" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -22779,6 +24749,9 @@
       <c r="J657" t="n">
         <v>-0.12</v>
       </c>
+      <c r="K657" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -22813,6 +24786,9 @@
       <c r="J658" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K658" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -22847,6 +24823,9 @@
       <c r="J659" t="n">
         <v>0</v>
       </c>
+      <c r="K659" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -22881,6 +24860,9 @@
       <c r="J660" t="n">
         <v>-0.1515151515151515</v>
       </c>
+      <c r="K660" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -22915,6 +24897,9 @@
       <c r="J661" t="n">
         <v>-0.3</v>
       </c>
+      <c r="K661" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -22949,6 +24934,9 @@
       <c r="J662" t="n">
         <v>-0.2608695652173913</v>
       </c>
+      <c r="K662" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -22983,6 +24971,9 @@
       <c r="J663" t="n">
         <v>-0.4761904761904763</v>
       </c>
+      <c r="K663" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -23017,6 +25008,9 @@
       <c r="J664" t="n">
         <v>-0.4117647058823529</v>
       </c>
+      <c r="K664" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -23051,6 +25045,9 @@
       <c r="J665" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K665" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -23085,6 +25082,9 @@
       <c r="J666" t="n">
         <v>-0.3088235294117647</v>
       </c>
+      <c r="K666" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -23119,6 +25119,9 @@
       <c r="J667" t="n">
         <v>-0.1724137931034483</v>
       </c>
+      <c r="K667" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -23153,6 +25156,9 @@
       <c r="J668" t="n">
         <v>-0.09836065573770503</v>
       </c>
+      <c r="K668" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -23187,6 +25193,9 @@
       <c r="J669" t="n">
         <v>0.3529411764705883</v>
       </c>
+      <c r="K669" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -23221,6 +25230,9 @@
       <c r="J670" t="n">
         <v>-0.1025641025641026</v>
       </c>
+      <c r="K670" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -23255,6 +25267,9 @@
       <c r="J671" t="n">
         <v>-0.9310344827586207</v>
       </c>
+      <c r="K671" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -23289,6 +25304,9 @@
       <c r="J672" t="n">
         <v>0</v>
       </c>
+      <c r="K672" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -23323,6 +25341,9 @@
       <c r="J673" t="n">
         <v>-0.5818181818181818</v>
       </c>
+      <c r="K673" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -23357,6 +25378,9 @@
       <c r="J674" t="n">
         <v>-0.1000000000000001</v>
       </c>
+      <c r="K674" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -23391,6 +25415,9 @@
       <c r="J675" t="n">
         <v>-0.4642857142857143</v>
       </c>
+      <c r="K675" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -23425,6 +25452,9 @@
       <c r="J676" t="n">
         <v>-1</v>
       </c>
+      <c r="K676" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -23459,6 +25489,9 @@
       <c r="J677" t="n">
         <v>-0.9459459459459461</v>
       </c>
+      <c r="K677" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -23493,6 +25526,9 @@
       <c r="J678" t="n">
         <v>-0.8400000000000001</v>
       </c>
+      <c r="K678" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -23527,6 +25563,9 @@
       <c r="J679" t="n">
         <v>0.65625</v>
       </c>
+      <c r="K679" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -23561,6 +25600,9 @@
       <c r="J680" t="n">
         <v>-1</v>
       </c>
+      <c r="K680" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -23595,6 +25637,9 @@
       <c r="J681" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K681" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -23629,6 +25674,9 @@
       <c r="J682" t="n">
         <v>-0.345679012345679</v>
       </c>
+      <c r="K682" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -23663,6 +25711,9 @@
       <c r="J683" t="n">
         <v>-0.2666666666666666</v>
       </c>
+      <c r="K683" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -23697,6 +25748,9 @@
       <c r="J684" t="n">
         <v>0.4285714285714286</v>
       </c>
+      <c r="K684" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -23731,6 +25785,9 @@
       <c r="J685" t="n">
         <v>0.3636363636363636</v>
       </c>
+      <c r="K685" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -23765,6 +25822,9 @@
       <c r="J686" t="n">
         <v>-0.6666666666666661</v>
       </c>
+      <c r="K686" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -23799,6 +25859,9 @@
       <c r="J687" t="n">
         <v>-0.3448275862068965</v>
       </c>
+      <c r="K687" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -23833,6 +25896,9 @@
       <c r="J688" t="n">
         <v>0.588235294117647</v>
       </c>
+      <c r="K688" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -23867,6 +25933,9 @@
       <c r="J689" t="n">
         <v>0.04999999999999999</v>
       </c>
+      <c r="K689" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -23901,6 +25970,9 @@
       <c r="J690" t="n">
         <v>-0.3287671232876712</v>
       </c>
+      <c r="K690" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -23935,6 +26007,9 @@
       <c r="J691" t="n">
         <v>-0.2121212121212121</v>
       </c>
+      <c r="K691" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -23969,6 +26044,9 @@
       <c r="J692" t="n">
         <v>-0.2</v>
       </c>
+      <c r="K692" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -24003,6 +26081,9 @@
       <c r="J693" t="n">
         <v>-1.428571428571428</v>
       </c>
+      <c r="K693" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -24037,6 +26118,9 @@
       <c r="J694" t="n">
         <v>-1.333333333333333</v>
       </c>
+      <c r="K694" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -24071,6 +26155,9 @@
       <c r="J695" t="n">
         <v>1.111111111111111</v>
       </c>
+      <c r="K695" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -24105,6 +26192,9 @@
       <c r="J696" t="n">
         <v>-0.1578947368421053</v>
       </c>
+      <c r="K696" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -24139,6 +26229,9 @@
       <c r="J697" t="n">
         <v>-0.2794117647058824</v>
       </c>
+      <c r="K697" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -24173,6 +26266,9 @@
       <c r="J698" t="n">
         <v>-0.2394366197183098</v>
       </c>
+      <c r="K698" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -24207,6 +26303,9 @@
       <c r="J699" t="n">
         <v>-0.2173913043478261</v>
       </c>
+      <c r="K699" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -24241,6 +26340,9 @@
       <c r="J700" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K700" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -24275,6 +26377,9 @@
       <c r="J701" t="n">
         <v>0.75</v>
       </c>
+      <c r="K701" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -24309,6 +26414,9 @@
       <c r="J702" t="n">
         <v>-0.4814814814814815</v>
       </c>
+      <c r="K702" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -24343,6 +26451,9 @@
       <c r="J703" t="n">
         <v>-1.375</v>
       </c>
+      <c r="K703" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -24377,6 +26488,9 @@
       <c r="J704" t="n">
         <v>-0.103448275862069</v>
       </c>
+      <c r="K704" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -24411,6 +26525,9 @@
       <c r="J705" t="n">
         <v>-0.55</v>
       </c>
+      <c r="K705" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -24445,6 +26562,9 @@
       <c r="J706" t="n">
         <v>-0.375</v>
       </c>
+      <c r="K706" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -24479,6 +26599,9 @@
       <c r="J707" t="n">
         <v>-0.3417721518987341</v>
       </c>
+      <c r="K707" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -24513,6 +26636,9 @@
       <c r="J708" t="n">
         <v>-0.6</v>
       </c>
+      <c r="K708" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -24547,6 +26673,9 @@
       <c r="J709" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="K709" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -24581,6 +26710,9 @@
       <c r="J710" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K710" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -24615,6 +26747,9 @@
       <c r="J711" t="n">
         <v>0.25</v>
       </c>
+      <c r="K711" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -24649,6 +26784,9 @@
       <c r="J712" t="n">
         <v>2.714285714285714</v>
       </c>
+      <c r="K712" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -24683,6 +26821,9 @@
       <c r="J713" t="n">
         <v>-0.4285714285714288</v>
       </c>
+      <c r="K713" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -24717,6 +26858,9 @@
       <c r="J714" t="n">
         <v>-0.3538461538461539</v>
       </c>
+      <c r="K714" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -24751,6 +26895,9 @@
       <c r="J715" t="n">
         <v>-0.4827586206896552</v>
       </c>
+      <c r="K715" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -24785,6 +26932,9 @@
       <c r="J716" t="n">
         <v>1.058823529411765</v>
       </c>
+      <c r="K716" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -24819,6 +26969,9 @@
       <c r="J717" t="n">
         <v>-0.4102564102564104</v>
       </c>
+      <c r="K717" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -24853,6 +27006,9 @@
       <c r="J718" t="n">
         <v>-0.4285714285714285</v>
       </c>
+      <c r="K718" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -24887,6 +27043,9 @@
       <c r="J719" t="n">
         <v>-0.4032258064516129</v>
       </c>
+      <c r="K719" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -24921,6 +27080,9 @@
       <c r="J720" t="n">
         <v>-0.4358974358974359</v>
       </c>
+      <c r="K720" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -24955,6 +27117,9 @@
       <c r="J721" t="n">
         <v>0</v>
       </c>
+      <c r="K721" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -24989,6 +27154,9 @@
       <c r="J722" t="n">
         <v>-2.142857142857143</v>
       </c>
+      <c r="K722" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -25023,6 +27191,9 @@
       <c r="J723" t="n">
         <v>-0.1594202898550725</v>
       </c>
+      <c r="K723" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -25057,6 +27228,9 @@
       <c r="J724" t="n">
         <v>-0.4868421052631579</v>
       </c>
+      <c r="K724" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -25091,6 +27265,9 @@
       <c r="J725" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K725" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -25125,6 +27302,9 @@
       <c r="J726" t="n">
         <v>0.8717948717948717</v>
       </c>
+      <c r="K726" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -25159,6 +27339,9 @@
       <c r="J727" t="n">
         <v>-1.25</v>
       </c>
+      <c r="K727" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -25193,6 +27376,9 @@
       <c r="J728" t="n">
         <v>0.1333333333333334</v>
       </c>
+      <c r="K728" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -25227,6 +27413,9 @@
       <c r="J729" t="n">
         <v>-0.3777777777777778</v>
       </c>
+      <c r="K729" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -25261,6 +27450,9 @@
       <c r="J730" t="n">
         <v>-0.1428571428571428</v>
       </c>
+      <c r="K730" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -25295,6 +27487,9 @@
       <c r="J731" t="n">
         <v>-0.2999999999999999</v>
       </c>
+      <c r="K731" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -25329,6 +27524,9 @@
       <c r="J732" t="n">
         <v>-0.6923076923076923</v>
       </c>
+      <c r="K732" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -25363,6 +27561,9 @@
       <c r="J733" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K733" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -25397,6 +27598,9 @@
       <c r="J734" t="n">
         <v>-0.234375</v>
       </c>
+      <c r="K734" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -25431,6 +27635,9 @@
       <c r="J735" t="n">
         <v>-0.7391304347826089</v>
       </c>
+      <c r="K735" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -25465,6 +27672,9 @@
       <c r="J736" t="n">
         <v>0.03846153846153849</v>
       </c>
+      <c r="K736" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -25499,6 +27709,9 @@
       <c r="J737" t="n">
         <v>-0.2692307692307692</v>
       </c>
+      <c r="K737" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -25533,6 +27746,9 @@
       <c r="J738" t="n">
         <v>-0.75</v>
       </c>
+      <c r="K738" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -25567,6 +27783,9 @@
       <c r="J739" t="n">
         <v>-1.173913043478261</v>
       </c>
+      <c r="K739" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -25601,6 +27820,9 @@
       <c r="J740" t="n">
         <v>-0.3043478260869565</v>
       </c>
+      <c r="K740" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -25635,6 +27857,9 @@
       <c r="J741" t="n">
         <v>-0.3142857142857143</v>
       </c>
+      <c r="K741" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -25669,6 +27894,9 @@
       <c r="J742" t="n">
         <v>-0.1739130434782609</v>
       </c>
+      <c r="K742" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -25703,6 +27931,9 @@
       <c r="J743" t="n">
         <v>0.2857142857142856</v>
       </c>
+      <c r="K743" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -25737,6 +27968,9 @@
       <c r="J744" t="n">
         <v>-0.7200000000000001</v>
       </c>
+      <c r="K744" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -25771,6 +28005,9 @@
       <c r="J745" t="n">
         <v>-1.052631578947368</v>
       </c>
+      <c r="K745" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -25805,6 +28042,9 @@
       <c r="J746" t="n">
         <v>0</v>
       </c>
+      <c r="K746" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -25839,6 +28079,9 @@
       <c r="J747" t="n">
         <v>-0.7</v>
       </c>
+      <c r="K747" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -25873,6 +28116,9 @@
       <c r="J748" t="n">
         <v>-0.3076923076923076</v>
       </c>
+      <c r="K748" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -25907,6 +28153,9 @@
       <c r="J749" t="n">
         <v>-0.4130434782608696</v>
       </c>
+      <c r="K749" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -25941,6 +28190,9 @@
       <c r="J750" t="n">
         <v>-3</v>
       </c>
+      <c r="K750" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -25975,6 +28227,9 @@
       <c r="J751" t="n">
         <v>-0.1599999999999999</v>
       </c>
+      <c r="K751" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -26009,6 +28264,9 @@
       <c r="J752" t="n">
         <v>-0.4137931034482759</v>
       </c>
+      <c r="K752" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -26043,6 +28301,9 @@
       <c r="J753" t="n">
         <v>-0.3478260869565217</v>
       </c>
+      <c r="K753" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -26077,6 +28338,9 @@
       <c r="J754" t="n">
         <v>0.05555555555555558</v>
       </c>
+      <c r="K754" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -26111,6 +28375,9 @@
       <c r="J755" t="n">
         <v>-0.4571428571428571</v>
       </c>
+      <c r="K755" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -26145,6 +28412,9 @@
       <c r="J756" t="n">
         <v>-0.4259259259259259</v>
       </c>
+      <c r="K756" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -26179,6 +28449,9 @@
       <c r="J757" t="n">
         <v>-0.1807228915662651</v>
       </c>
+      <c r="K757" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -26213,6 +28486,9 @@
       <c r="J758" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K758" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -26247,6 +28523,9 @@
       <c r="J759" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K759" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -26281,6 +28560,9 @@
       <c r="J760" t="n">
         <v>-1</v>
       </c>
+      <c r="K760" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -26315,6 +28597,9 @@
       <c r="J761" t="n">
         <v>-0.4444444444444444</v>
       </c>
+      <c r="K761" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -26349,6 +28634,9 @@
       <c r="J762" t="n">
         <v>-0.9090909090909091</v>
       </c>
+      <c r="K762" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -26383,6 +28671,9 @@
       <c r="J763" t="n">
         <v>-0.7307692307692308</v>
       </c>
+      <c r="K763" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -26417,6 +28708,9 @@
       <c r="J764" t="n">
         <v>-1.533333333333333</v>
       </c>
+      <c r="K764" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -26451,6 +28745,9 @@
       <c r="J765" t="n">
         <v>-0.3076923076923077</v>
       </c>
+      <c r="K765" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -26485,6 +28782,9 @@
       <c r="J766" t="n">
         <v>0</v>
       </c>
+      <c r="K766" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -26519,6 +28819,9 @@
       <c r="J767" t="n">
         <v>-0.2083333333333333</v>
       </c>
+      <c r="K767" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -26553,6 +28856,9 @@
       <c r="J768" t="n">
         <v>0.2307692307692308</v>
       </c>
+      <c r="K768" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -26587,6 +28893,9 @@
       <c r="J769" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K769" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -26621,6 +28930,9 @@
       <c r="J770" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K770" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -26655,6 +28967,9 @@
       <c r="J771" t="n">
         <v>-0.125</v>
       </c>
+      <c r="K771" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -26689,6 +29004,9 @@
       <c r="J772" t="n">
         <v>-0.2857142857142857</v>
       </c>
+      <c r="K772" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -26723,6 +29041,9 @@
       <c r="J773" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K773" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -26757,6 +29078,9 @@
       <c r="J774" t="n">
         <v>-0.08333333333333333</v>
       </c>
+      <c r="K774" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -26791,6 +29115,9 @@
       <c r="J775" t="n">
         <v>-0.6666666666666666</v>
       </c>
+      <c r="K775" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
@@ -26825,6 +29152,9 @@
       <c r="J776" t="n">
         <v>-0.3676470588235294</v>
       </c>
+      <c r="K776" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -26859,6 +29189,9 @@
       <c r="J777" t="n">
         <v>0.2857142857142857</v>
       </c>
+      <c r="K777" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -26893,6 +29226,9 @@
       <c r="J778" t="n">
         <v>-0.303030303030303</v>
       </c>
+      <c r="K778" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
@@ -26927,6 +29263,9 @@
       <c r="J779" t="n">
         <v>-0.2500000000000002</v>
       </c>
+      <c r="K779" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -26961,6 +29300,9 @@
       <c r="J780" t="n">
         <v>-0.4150943396226415</v>
       </c>
+      <c r="K780" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
@@ -26995,6 +29337,9 @@
       <c r="J781" t="n">
         <v>-0.6666666666666665</v>
       </c>
+      <c r="K781" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
@@ -27029,6 +29374,9 @@
       <c r="J782" t="n">
         <v>0</v>
       </c>
+      <c r="K782" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -27063,6 +29411,9 @@
       <c r="J783" t="n">
         <v>0.5714285714285714</v>
       </c>
+      <c r="K783" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
@@ -27097,6 +29448,9 @@
       <c r="J784" t="n">
         <v>-1</v>
       </c>
+      <c r="K784" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -27131,6 +29485,9 @@
       <c r="J785" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K785" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
@@ -27165,6 +29522,9 @@
       <c r="J786" t="n">
         <v>-0.4827586206896551</v>
       </c>
+      <c r="K786" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -27199,6 +29559,9 @@
       <c r="J787" t="n">
         <v>0.1428571428571428</v>
       </c>
+      <c r="K787" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
@@ -27233,6 +29596,9 @@
       <c r="J788" t="n">
         <v>1.481481481481481</v>
       </c>
+      <c r="K788" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
@@ -27267,6 +29633,9 @@
       <c r="J789" t="n">
         <v>-1.695652173913043</v>
       </c>
+      <c r="K789" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -27301,6 +29670,9 @@
       <c r="J790" t="n">
         <v>-0.5</v>
       </c>
+      <c r="K790" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -27335,6 +29707,9 @@
       <c r="J791" t="n">
         <v>-0.8</v>
       </c>
+      <c r="K791" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
@@ -27369,6 +29744,9 @@
       <c r="J792" t="n">
         <v>-0.9</v>
       </c>
+      <c r="K792" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -27403,6 +29781,9 @@
       <c r="J793" t="n">
         <v>-0.25</v>
       </c>
+      <c r="K793" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -27437,6 +29818,9 @@
       <c r="J794" t="n">
         <v>-0.22</v>
       </c>
+      <c r="K794" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
@@ -27471,6 +29855,9 @@
       <c r="J795" t="n">
         <v>-0.05882352941176472</v>
       </c>
+      <c r="K795" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -27505,6 +29892,9 @@
       <c r="J796" t="n">
         <v>-1.75</v>
       </c>
+      <c r="K796" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -27539,6 +29929,9 @@
       <c r="J797" t="n">
         <v>-0.4848484848484849</v>
       </c>
+      <c r="K797" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
@@ -27573,6 +29966,9 @@
       <c r="J798" t="n">
         <v>-0.5945945945945943</v>
       </c>
+      <c r="K798" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -27607,6 +30003,9 @@
       <c r="J799" t="n">
         <v>0</v>
       </c>
+      <c r="K799" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -27641,6 +30040,9 @@
       <c r="J800" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K800" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
@@ -27675,6 +30077,9 @@
       <c r="J801" t="n">
         <v>-1.6</v>
       </c>
+      <c r="K801" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
@@ -27709,6 +30114,9 @@
       <c r="J802" t="n">
         <v>-0.6875</v>
       </c>
+      <c r="K802" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
@@ -27743,6 +30151,9 @@
       <c r="J803" t="n">
         <v>-0.4</v>
       </c>
+      <c r="K803" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -27777,6 +30188,9 @@
       <c r="J804" t="n">
         <v>0.2631578947368421</v>
       </c>
+      <c r="K804" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
@@ -27811,6 +30225,9 @@
       <c r="J805" t="n">
         <v>-0.6363636363636362</v>
       </c>
+      <c r="K805" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
@@ -27845,6 +30262,9 @@
       <c r="J806" t="n">
         <v>-0.1785714285714285</v>
       </c>
+      <c r="K806" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -27879,6 +30299,9 @@
       <c r="J807" t="n">
         <v>-0.625</v>
       </c>
+      <c r="K807" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
@@ -27913,6 +30336,9 @@
       <c r="J808" t="n">
         <v>-0.3333333333333333</v>
       </c>
+      <c r="K808" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
@@ -27947,6 +30373,9 @@
       <c r="J809" t="n">
         <v>-0.1212121212121212</v>
       </c>
+      <c r="K809" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
@@ -27981,6 +30410,9 @@
       <c r="J810" t="n">
         <v>-1.466666666666667</v>
       </c>
+      <c r="K810" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
@@ -28015,6 +30447,9 @@
       <c r="J811" t="n">
         <v>-0.4102564102564102</v>
       </c>
+      <c r="K811" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
@@ -28049,6 +30484,9 @@
       <c r="J812" t="n">
         <v>0.6585365853658536</v>
       </c>
+      <c r="K812" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
@@ -28083,6 +30521,9 @@
       <c r="J813" t="n">
         <v>-0.564102564102564</v>
       </c>
+      <c r="K813" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -28117,6 +30558,9 @@
       <c r="J814" t="n">
         <v>-1.3</v>
       </c>
+      <c r="K814" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
@@ -28151,6 +30595,9 @@
       <c r="J815" t="n">
         <v>-2</v>
       </c>
+      <c r="K815" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
@@ -28185,6 +30632,9 @@
       <c r="J816" t="n">
         <v>-0.9166666666666666</v>
       </c>
+      <c r="K816" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
@@ -28219,6 +30669,9 @@
       <c r="J817" t="n">
         <v>1</v>
       </c>
+      <c r="K817" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -28253,6 +30706,9 @@
       <c r="J818" t="n">
         <v>-0.1363636363636364</v>
       </c>
+      <c r="K818" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -28287,6 +30743,9 @@
       <c r="J819" t="n">
         <v>0.3125</v>
       </c>
+      <c r="K819" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
@@ -28319,6 +30778,9 @@
       <c r="J820" t="n">
         <v>0</v>
       </c>
+      <c r="K820" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
@@ -28353,6 +30815,9 @@
       <c r="J821" t="n">
         <v>-1.083333333333333</v>
       </c>
+      <c r="K821" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
@@ -28387,6 +30852,9 @@
       <c r="J822" t="n">
         <v>-0.206896551724138</v>
       </c>
+      <c r="K822" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
@@ -28421,6 +30889,9 @@
       <c r="J823" t="n">
         <v>-0.6111111111111112</v>
       </c>
+      <c r="K823" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
@@ -28455,6 +30926,9 @@
       <c r="J824" t="n">
         <v>-0.2333333333333333</v>
       </c>
+      <c r="K824" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -28489,6 +30963,9 @@
       <c r="J825" t="n">
         <v>-0.3728813559322033</v>
       </c>
+      <c r="K825" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -28523,6 +31000,9 @@
       <c r="J826" t="n">
         <v>0.75</v>
       </c>
+      <c r="K826" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
@@ -28557,6 +31037,9 @@
       <c r="J827" t="n">
         <v>-0.3538461538461538</v>
       </c>
+      <c r="K827" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
@@ -28591,6 +31074,9 @@
       <c r="J828" t="n">
         <v>-0.263157894736842</v>
       </c>
+      <c r="K828" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
@@ -28625,6 +31111,9 @@
       <c r="J829" t="n">
         <v>-0.2500000000000001</v>
       </c>
+      <c r="K829" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -28659,6 +31148,9 @@
       <c r="J830" t="n">
         <v>-0.1666666666666667</v>
       </c>
+      <c r="K830" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -28693,6 +31185,9 @@
       <c r="J831" t="n">
         <v>-1</v>
       </c>
+      <c r="K831" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -28727,6 +31222,9 @@
       <c r="J832" t="n">
         <v>-0.5882352941176472</v>
       </c>
+      <c r="K832" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
@@ -28761,6 +31259,9 @@
       <c r="J833" t="n">
         <v>3.5</v>
       </c>
+      <c r="K833" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
@@ -28795,6 +31296,9 @@
       <c r="J834" t="n">
         <v>-3</v>
       </c>
+      <c r="K834" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
@@ -28829,6 +31333,9 @@
       <c r="J835" t="n">
         <v>0.8947368421052633</v>
       </c>
+      <c r="K835" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
@@ -28863,6 +31370,9 @@
       <c r="J836" t="n">
         <v>0.4848484848484849</v>
       </c>
+      <c r="K836" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
@@ -28897,6 +31407,9 @@
       <c r="J837" t="n">
         <v>-0.7999999999999998</v>
       </c>
+      <c r="K837" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
@@ -28931,6 +31444,9 @@
       <c r="J838" t="n">
         <v>1</v>
       </c>
+      <c r="K838" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
@@ -28965,6 +31481,9 @@
       <c r="J839" t="n">
         <v>-1.5</v>
       </c>
+      <c r="K839" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -28999,6 +31518,9 @@
       <c r="J840" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K840" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
@@ -29033,6 +31555,9 @@
       <c r="J841" t="n">
         <v>0.166666666666667</v>
       </c>
+      <c r="K841" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
@@ -29067,6 +31592,9 @@
       <c r="J842" t="n">
         <v>-0.7333333333333333</v>
       </c>
+      <c r="K842" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
@@ -29101,6 +31629,9 @@
       <c r="J843" t="n">
         <v>-0.3103448275862069</v>
       </c>
+      <c r="K843" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -29135,6 +31666,9 @@
       <c r="J844" t="n">
         <v>-0.3857142857142858</v>
       </c>
+      <c r="K844" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
@@ -29169,6 +31703,9 @@
       <c r="J845" t="n">
         <v>-0.3194444444444445</v>
       </c>
+      <c r="K845" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
@@ -29203,6 +31740,9 @@
       <c r="J846" t="n">
         <v>-0.1875</v>
       </c>
+      <c r="K846" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
@@ -29237,6 +31777,9 @@
       <c r="J847" t="n">
         <v>-0.4074074074074074</v>
       </c>
+      <c r="K847" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
@@ -29271,6 +31814,9 @@
       <c r="J848" t="n">
         <v>-0.6666666666666667</v>
       </c>
+      <c r="K848" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
@@ -29305,6 +31851,9 @@
       <c r="J849" t="n">
         <v>-0.5454545454545454</v>
       </c>
+      <c r="K849" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
@@ -29338,6 +31887,9 @@
       </c>
       <c r="J850" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="K850" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
